--- a/SVV 2019 Analytical Model editted MoI.xlsx
+++ b/SVV 2019 Analytical Model editted MoI.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5640" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
     <sheet name="Cross-sectional properties" sheetId="2" r:id="rId2"/>
     <sheet name="Aileron shear" sheetId="3" r:id="rId3"/>
-    <sheet name="Aileron torsion" sheetId="4" r:id="rId4"/>
-    <sheet name="Superpositioning" sheetId="6" r:id="rId5"/>
+    <sheet name="Superpositioning" sheetId="6" r:id="rId4"/>
+    <sheet name="Aileron torsion" sheetId="4" r:id="rId5"/>
     <sheet name="Internal Force Diagrams" sheetId="7" r:id="rId6"/>
     <sheet name="V_z" sheetId="9" r:id="rId7"/>
     <sheet name="V_y" sheetId="10" r:id="rId8"/>
@@ -1842,42 +1842,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1887,8 +1851,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1907,6 +1886,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1953,8 +1953,14 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1965,14 +1971,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3183,11 +3183,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="306302248"/>
-        <c:axId val="306301072"/>
+        <c:axId val="305559384"/>
+        <c:axId val="305559776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="306302248"/>
+        <c:axId val="305559384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3300,12 +3300,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306301072"/>
+        <c:crossAx val="305559776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="306301072"/>
+        <c:axId val="305559776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3418,7 +3418,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="306302248"/>
+        <c:crossAx val="305559384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4702,11 +4702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309868080"/>
-        <c:axId val="309870824"/>
+        <c:axId val="305560168"/>
+        <c:axId val="305560560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309868080"/>
+        <c:axId val="305560168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4819,12 +4819,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309870824"/>
+        <c:crossAx val="305560560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309870824"/>
+        <c:axId val="305560560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4937,7 +4937,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309868080"/>
+        <c:crossAx val="305560168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5065,6 +5065,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6215,11 +6216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309873176"/>
-        <c:axId val="309866904"/>
+        <c:axId val="393646768"/>
+        <c:axId val="393652256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309873176"/>
+        <c:axId val="393646768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6265,6 +6266,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6331,12 +6333,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309866904"/>
+        <c:crossAx val="393652256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309866904"/>
+        <c:axId val="393652256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6382,6 +6384,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6448,7 +6451,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309873176"/>
+        <c:crossAx val="393646768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6462,6 +6465,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7726,11 +7730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309870040"/>
-        <c:axId val="309873960"/>
+        <c:axId val="393645592"/>
+        <c:axId val="393653040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309870040"/>
+        <c:axId val="393645592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7843,12 +7847,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309873960"/>
+        <c:crossAx val="393653040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309873960"/>
+        <c:axId val="393653040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7961,7 +7965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309870040"/>
+        <c:crossAx val="393645592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8084,6 +8088,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9234,11 +9239,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309867688"/>
-        <c:axId val="309866512"/>
+        <c:axId val="393645984"/>
+        <c:axId val="393646376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309867688"/>
+        <c:axId val="393645984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9284,6 +9289,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9350,12 +9356,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309866512"/>
+        <c:crossAx val="393646376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309866512"/>
+        <c:axId val="393646376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9401,6 +9407,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9467,7 +9474,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309867688"/>
+        <c:crossAx val="393645984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9481,6 +9488,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12333,7 +12341,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12344,7 +12352,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12355,7 +12363,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12366,7 +12374,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12377,7 +12385,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="102" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12388,13 +12396,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6294438"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{072BC4C7-472D-3E4B-9933-A6677CF1B49C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072BC4C7-472D-3E4B-9933-A6677CF1B49C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12421,13 +12429,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1B7A342C-C4A4-8943-A548-B10AD8F4F6C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7A342C-C4A4-8943-A548-B10AD8F4F6C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12454,13 +12462,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00347263-DE93-5A41-BDB4-F912F6110676}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00347263-DE93-5A41-BDB4-F912F6110676}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12487,13 +12495,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22E843FD-8AFC-D543-9722-1E564CD7CF34}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22E843FD-8AFC-D543-9722-1E564CD7CF34}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12520,13 +12528,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9296400" cy="6070600"/>
+    <xdr:ext cx="8665882" cy="6293971"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E6957833-F082-5F48-AC50-90C12C5AD346}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6957833-F082-5F48-AC50-90C12C5AD346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12848,7 +12856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -13163,7 +13171,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J44" sqref="J44"/>
@@ -15847,8 +15855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="L29" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M18" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -15865,27 +15873,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
-      <c r="F1" s="114" t="s">
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
+      <c r="F1" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="116"/>
-      <c r="N1" s="108" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="N1" s="124" t="s">
         <v>124</v>
       </c>
-      <c r="O1" s="109"/>
-      <c r="P1" s="109"/>
-      <c r="Q1" s="109"/>
-      <c r="R1" s="109"/>
-      <c r="S1" s="110"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="126"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
@@ -15898,26 +15906,26 @@
       <c r="C2" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F2" s="111" t="s">
+      <c r="F2" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="111" t="s">
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="112"/>
-      <c r="K2" s="113"/>
-      <c r="N2" s="111" t="s">
+      <c r="J2" s="109"/>
+      <c r="K2" s="111"/>
+      <c r="N2" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="O2" s="112"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="111" t="s">
+      <c r="O2" s="109"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="R2" s="112"/>
-      <c r="S2" s="113"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="111"/>
     </row>
     <row r="3" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="44" t="s">
@@ -15984,7 +15992,7 @@
       <c r="C4" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="106" t="s">
+      <c r="E4" s="112" t="s">
         <v>119</v>
       </c>
       <c r="F4" s="51" t="s">
@@ -16000,14 +16008,14 @@
       <c r="I4" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J4" s="121">
-        <v>0</v>
-      </c>
-      <c r="K4" s="124">
+      <c r="J4" s="114">
+        <v>0</v>
+      </c>
+      <c r="K4" s="117">
         <f>Input!C15*10</f>
         <v>6.8100000000000005</v>
       </c>
-      <c r="M4" s="105" t="s">
+      <c r="M4" s="120" t="s">
         <v>119</v>
       </c>
       <c r="N4" s="51" t="s">
@@ -16044,7 +16052,7 @@
       <c r="C5" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="106"/>
+      <c r="E5" s="112"/>
       <c r="F5" s="44" t="s">
         <v>113</v>
       </c>
@@ -16059,9 +16067,9 @@
       <c r="I5" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="125"/>
-      <c r="M5" s="106"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="118"/>
+      <c r="M5" s="112"/>
       <c r="N5" s="44" t="s">
         <v>113</v>
       </c>
@@ -16096,7 +16104,7 @@
       <c r="C6" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="E6" s="107"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="46" t="s">
         <v>114</v>
       </c>
@@ -16111,9 +16119,9 @@
       <c r="I6" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J6" s="123"/>
-      <c r="K6" s="126"/>
-      <c r="M6" s="107"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="119"/>
+      <c r="M6" s="113"/>
       <c r="N6" s="46" t="s">
         <v>114</v>
       </c>
@@ -16148,7 +16156,7 @@
       <c r="C7" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="112" t="s">
         <v>121</v>
       </c>
       <c r="F7" s="51" t="s">
@@ -16164,14 +16172,14 @@
       <c r="I7" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="J7" s="121">
-        <v>0</v>
-      </c>
-      <c r="K7" s="124">
+      <c r="J7" s="114">
+        <v>0</v>
+      </c>
+      <c r="K7" s="117">
         <f>Input!C16*10</f>
         <v>20.299999999999997</v>
       </c>
-      <c r="M7" s="105" t="s">
+      <c r="M7" s="120" t="s">
         <v>120</v>
       </c>
       <c r="N7" s="51" t="s">
@@ -16198,7 +16206,7 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="E8" s="106"/>
+      <c r="E8" s="112"/>
       <c r="F8" s="44" t="s">
         <v>113</v>
       </c>
@@ -16213,9 +16221,9 @@
       <c r="I8" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="J8" s="122"/>
-      <c r="K8" s="125"/>
-      <c r="M8" s="106"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="118"/>
+      <c r="M8" s="112"/>
       <c r="N8" s="44" t="s">
         <v>113</v>
       </c>
@@ -16240,7 +16248,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E9" s="107"/>
+      <c r="E9" s="113"/>
       <c r="F9" s="46" t="s">
         <v>114</v>
       </c>
@@ -16255,9 +16263,9 @@
       <c r="I9" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="J9" s="123"/>
-      <c r="K9" s="126"/>
-      <c r="M9" s="107"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="119"/>
+      <c r="M9" s="113"/>
       <c r="N9" s="46" t="s">
         <v>114</v>
       </c>
@@ -16282,7 +16290,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M10" s="105" t="s">
+      <c r="M10" s="120" t="s">
         <v>121</v>
       </c>
       <c r="N10" s="51" t="s">
@@ -16309,7 +16317,7 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="M11" s="106"/>
+      <c r="M11" s="112"/>
       <c r="N11" s="44" t="s">
         <v>113</v>
       </c>
@@ -16334,7 +16342,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M12" s="107"/>
+      <c r="M12" s="113"/>
       <c r="N12" s="46" t="s">
         <v>114</v>
       </c>
@@ -16360,26 +16368,26 @@
     </row>
     <row r="13" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N14" s="108" t="s">
+      <c r="N14" s="124" t="s">
         <v>146</v>
       </c>
-      <c r="O14" s="109"/>
-      <c r="P14" s="109"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="110"/>
+      <c r="O14" s="125"/>
+      <c r="P14" s="125"/>
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="126"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N15" s="111" t="s">
+      <c r="N15" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="112"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="111" t="s">
+      <c r="O15" s="109"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="R15" s="112"/>
-      <c r="S15" s="113"/>
+      <c r="R15" s="109"/>
+      <c r="S15" s="111"/>
     </row>
     <row r="16" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M16" s="56" t="s">
@@ -16405,7 +16413,7 @@
       </c>
     </row>
     <row r="17" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M17" s="105" t="s">
+      <c r="M17" s="120" t="s">
         <v>119</v>
       </c>
       <c r="N17" s="51" t="s">
@@ -16431,7 +16439,7 @@
       </c>
     </row>
     <row r="18" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M18" s="106"/>
+      <c r="M18" s="112"/>
       <c r="N18" s="44" t="s">
         <v>113</v>
       </c>
@@ -16456,7 +16464,7 @@
       </c>
     </row>
     <row r="19" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M19" s="107"/>
+      <c r="M19" s="113"/>
       <c r="N19" s="46" t="s">
         <v>114</v>
       </c>
@@ -16481,7 +16489,7 @@
       </c>
     </row>
     <row r="20" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M20" s="105" t="s">
+      <c r="M20" s="120" t="s">
         <v>120</v>
       </c>
       <c r="N20" s="51" t="s">
@@ -16515,7 +16523,7 @@
       </c>
     </row>
     <row r="21" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M21" s="106"/>
+      <c r="M21" s="112"/>
       <c r="N21" s="44" t="s">
         <v>113</v>
       </c>
@@ -16548,7 +16556,7 @@
       </c>
     </row>
     <row r="22" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M22" s="107"/>
+      <c r="M22" s="113"/>
       <c r="N22" s="46" t="s">
         <v>114</v>
       </c>
@@ -16581,7 +16589,7 @@
       </c>
     </row>
     <row r="23" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M23" s="105" t="s">
+      <c r="M23" s="120" t="s">
         <v>121</v>
       </c>
       <c r="N23" s="51" t="s">
@@ -16608,7 +16616,7 @@
       </c>
     </row>
     <row r="24" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M24" s="106"/>
+      <c r="M24" s="112"/>
       <c r="N24" s="44" t="s">
         <v>113</v>
       </c>
@@ -16633,7 +16641,7 @@
       </c>
     </row>
     <row r="25" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M25" s="107"/>
+      <c r="M25" s="113"/>
       <c r="N25" s="46" t="s">
         <v>114</v>
       </c>
@@ -16659,26 +16667,26 @@
     </row>
     <row r="26" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N27" s="108" t="s">
+      <c r="N27" s="124" t="s">
         <v>147</v>
       </c>
-      <c r="O27" s="109"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="109"/>
-      <c r="R27" s="109"/>
-      <c r="S27" s="110"/>
+      <c r="O27" s="125"/>
+      <c r="P27" s="125"/>
+      <c r="Q27" s="125"/>
+      <c r="R27" s="125"/>
+      <c r="S27" s="126"/>
     </row>
     <row r="28" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N28" s="111" t="s">
+      <c r="N28" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="O28" s="112"/>
-      <c r="P28" s="113"/>
-      <c r="Q28" s="111" t="s">
+      <c r="O28" s="109"/>
+      <c r="P28" s="111"/>
+      <c r="Q28" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="R28" s="112"/>
-      <c r="S28" s="113"/>
+      <c r="R28" s="109"/>
+      <c r="S28" s="111"/>
     </row>
     <row r="29" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M29" s="56" t="s">
@@ -16704,7 +16712,7 @@
       </c>
     </row>
     <row r="30" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M30" s="105" t="s">
+      <c r="M30" s="120" t="s">
         <v>119</v>
       </c>
       <c r="N30" s="52" t="s">
@@ -16747,7 +16755,7 @@
       </c>
     </row>
     <row r="31" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M31" s="106"/>
+      <c r="M31" s="112"/>
       <c r="N31" s="44" t="s">
         <v>113</v>
       </c>
@@ -16788,7 +16796,7 @@
       </c>
     </row>
     <row r="32" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M32" s="107"/>
+      <c r="M32" s="113"/>
       <c r="N32" s="46" t="s">
         <v>114</v>
       </c>
@@ -16829,7 +16837,7 @@
       </c>
     </row>
     <row r="33" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M33" s="105" t="s">
+      <c r="M33" s="120" t="s">
         <v>120</v>
       </c>
       <c r="N33" s="51" t="s">
@@ -16880,7 +16888,7 @@
       </c>
     </row>
     <row r="34" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M34" s="106"/>
+      <c r="M34" s="112"/>
       <c r="N34" s="44" t="s">
         <v>113</v>
       </c>
@@ -16929,7 +16937,7 @@
       </c>
     </row>
     <row r="35" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M35" s="107"/>
+      <c r="M35" s="113"/>
       <c r="N35" s="46" t="s">
         <v>114</v>
       </c>
@@ -16978,7 +16986,7 @@
       </c>
     </row>
     <row r="36" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M36" s="105" t="s">
+      <c r="M36" s="120" t="s">
         <v>121</v>
       </c>
       <c r="N36" s="51" t="s">
@@ -17021,7 +17029,7 @@
       </c>
     </row>
     <row r="37" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M37" s="106"/>
+      <c r="M37" s="112"/>
       <c r="N37" s="44" t="s">
         <v>113</v>
       </c>
@@ -17062,7 +17070,7 @@
       </c>
     </row>
     <row r="38" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M38" s="107"/>
+      <c r="M38" s="113"/>
       <c r="N38" s="46" t="s">
         <v>114</v>
       </c>
@@ -17104,26 +17112,26 @@
     </row>
     <row r="39" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N40" s="108" t="s">
+      <c r="N40" s="124" t="s">
         <v>148</v>
       </c>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-      <c r="S40" s="110"/>
+      <c r="O40" s="125"/>
+      <c r="P40" s="125"/>
+      <c r="Q40" s="125"/>
+      <c r="R40" s="125"/>
+      <c r="S40" s="126"/>
     </row>
     <row r="41" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="N41" s="111" t="s">
+      <c r="N41" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="O41" s="112"/>
-      <c r="P41" s="113"/>
-      <c r="Q41" s="111" t="s">
+      <c r="O41" s="109"/>
+      <c r="P41" s="111"/>
+      <c r="Q41" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="R41" s="112"/>
-      <c r="S41" s="113"/>
+      <c r="R41" s="109"/>
+      <c r="S41" s="111"/>
     </row>
     <row r="42" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M42" s="56" t="s">
@@ -17149,7 +17157,7 @@
       </c>
     </row>
     <row r="43" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M43" s="105" t="s">
+      <c r="M43" s="120" t="s">
         <v>119</v>
       </c>
       <c r="N43" s="51" t="s">
@@ -17176,7 +17184,7 @@
       </c>
     </row>
     <row r="44" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M44" s="106"/>
+      <c r="M44" s="112"/>
       <c r="N44" s="44" t="s">
         <v>113</v>
       </c>
@@ -17201,7 +17209,7 @@
       </c>
     </row>
     <row r="45" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M45" s="107"/>
+      <c r="M45" s="113"/>
       <c r="N45" s="46" t="s">
         <v>114</v>
       </c>
@@ -17226,7 +17234,7 @@
       </c>
     </row>
     <row r="46" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M46" s="105" t="s">
+      <c r="M46" s="120" t="s">
         <v>120</v>
       </c>
       <c r="N46" s="51" t="s">
@@ -17253,7 +17261,7 @@
       </c>
     </row>
     <row r="47" spans="13:26" x14ac:dyDescent="0.25">
-      <c r="M47" s="106"/>
+      <c r="M47" s="112"/>
       <c r="N47" s="44" t="s">
         <v>113</v>
       </c>
@@ -17278,7 +17286,7 @@
       </c>
     </row>
     <row r="48" spans="13:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M48" s="107"/>
+      <c r="M48" s="113"/>
       <c r="N48" s="46" t="s">
         <v>114</v>
       </c>
@@ -17303,7 +17311,7 @@
       </c>
     </row>
     <row r="49" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="M49" s="105" t="s">
+      <c r="M49" s="120" t="s">
         <v>121</v>
       </c>
       <c r="N49" s="51" t="s">
@@ -17330,7 +17338,7 @@
       </c>
     </row>
     <row r="50" spans="10:19" x14ac:dyDescent="0.25">
-      <c r="M50" s="106"/>
+      <c r="M50" s="112"/>
       <c r="N50" s="44" t="s">
         <v>113</v>
       </c>
@@ -17358,7 +17366,7 @@
       <c r="J51" t="s">
         <v>187</v>
       </c>
-      <c r="M51" s="107"/>
+      <c r="M51" s="113"/>
       <c r="N51" s="46" t="s">
         <v>114</v>
       </c>
@@ -17394,6 +17402,31 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="M43:M45"/>
+    <mergeCell ref="M46:M48"/>
+    <mergeCell ref="M49:M51"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="M33:M35"/>
+    <mergeCell ref="M36:M38"/>
+    <mergeCell ref="N40:S40"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="M17:M19"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="M23:M25"/>
+    <mergeCell ref="N27:S27"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="N14:S14"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="N1:S1"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="M4:M6"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="F1:K1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:K2"/>
@@ -17403,37 +17436,2516 @@
     <mergeCell ref="K4:K6"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
-    <mergeCell ref="M4:M6"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="N14:S14"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="N40:S40"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="M17:M19"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="M23:M25"/>
-    <mergeCell ref="N27:S27"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="M43:M45"/>
-    <mergeCell ref="M46:M48"/>
-    <mergeCell ref="M49:M51"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="M33:M35"/>
-    <mergeCell ref="M36:M38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI49"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="21" width="10.75" style="29"/>
+    <col min="24" max="35" width="7.5" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="124" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="126"/>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
+      <c r="J1" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
+      <c r="N1" s="146"/>
+      <c r="O1" s="146"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="146"/>
+      <c r="S1" s="146"/>
+      <c r="T1" s="146"/>
+      <c r="U1" s="147"/>
+    </row>
+    <row r="2" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="109"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="109"/>
+      <c r="G2" s="111"/>
+      <c r="I2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J2" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="144"/>
+      <c r="N2" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O2" s="143"/>
+      <c r="P2" s="143"/>
+      <c r="Q2" s="144"/>
+      <c r="R2" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="S2" s="143"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="144"/>
+    </row>
+    <row r="3" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F3" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M3" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q3" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="S3" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U3" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="26">
+        <f>'Aileron shear'!O43</f>
+        <v>-12.895326584644117</v>
+      </c>
+      <c r="D4" s="50">
+        <f>'Aileron shear'!P43</f>
+        <v>83.925987367942099</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="26">
+        <f>'Aileron shear'!R43</f>
+        <v>-12.895326584644117</v>
+      </c>
+      <c r="G4" s="50">
+        <f>'Aileron shear'!S43</f>
+        <v>83.925987367942099</v>
+      </c>
+      <c r="I4" s="55">
+        <f>'Aileron torsion'!E$4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="76">
+        <f t="shared" ref="J4:U4" si="0">J14+J24+J34+J44</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="77">
+        <f t="shared" si="0"/>
+        <v>8.5082534296760759</v>
+      </c>
+      <c r="L4" s="75">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="78">
+        <f t="shared" si="0"/>
+        <v>8.4907445185062898</v>
+      </c>
+      <c r="N4" s="52">
+        <f t="shared" si="0"/>
+        <v>-3.7284010730007155</v>
+      </c>
+      <c r="O4" s="54">
+        <f t="shared" si="0"/>
+        <v>7.6471675269973263</v>
+      </c>
+      <c r="P4" s="82">
+        <f t="shared" si="0"/>
+        <v>-3.7284010730007155</v>
+      </c>
+      <c r="Q4" s="83">
+        <f t="shared" si="0"/>
+        <v>7.6314306218807415</v>
+      </c>
+      <c r="R4" s="52">
+        <f t="shared" si="0"/>
+        <v>3.7284010730007155</v>
+      </c>
+      <c r="S4" s="54">
+        <f t="shared" si="0"/>
+        <v>7.6471675269973263</v>
+      </c>
+      <c r="T4" s="82">
+        <f t="shared" si="0"/>
+        <v>3.7284010730007155</v>
+      </c>
+      <c r="U4" s="54">
+        <f t="shared" si="0"/>
+        <v>7.6314306218807415</v>
+      </c>
+      <c r="X4" s="27" t="str">
+        <f>'Aileron shear'!A2</f>
+        <v>EI_yy</v>
+      </c>
+      <c r="Y4" s="27">
+        <f>'Aileron shear'!B2</f>
+        <v>5078606421.232461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" s="112"/>
+      <c r="B5" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" s="27">
+        <f>'Aileron shear'!O44</f>
+        <v>-454.93529563559315</v>
+      </c>
+      <c r="D5" s="45">
+        <f>'Aileron shear'!P44</f>
+        <v>69.779238672955344</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="27">
+        <f>'Aileron shear'!R44</f>
+        <v>-377.47185813186996</v>
+      </c>
+      <c r="G5" s="45">
+        <f>'Aileron shear'!S44</f>
+        <v>-131.89912008492107</v>
+      </c>
+      <c r="I5" s="72">
+        <f>'Aileron torsion'!E$5</f>
+        <v>149</v>
+      </c>
+      <c r="J5" s="44">
+        <f t="shared" ref="J5:U5" si="1">J15+J25+J35+J45</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="45">
+        <f t="shared" si="1"/>
+        <v>6.813526778428538</v>
+      </c>
+      <c r="L5" s="43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="62">
+        <f t="shared" si="1"/>
+        <v>6.7937931280307096</v>
+      </c>
+      <c r="N5" s="44">
+        <f t="shared" si="1"/>
+        <v>-2.9853075096336172</v>
+      </c>
+      <c r="O5" s="45">
+        <f t="shared" si="1"/>
+        <v>6.1242739939159803</v>
+      </c>
+      <c r="P5" s="43">
+        <f t="shared" si="1"/>
+        <v>-2.9853075096336172</v>
+      </c>
+      <c r="Q5" s="62">
+        <f t="shared" si="1"/>
+        <v>6.1047655003734622</v>
+      </c>
+      <c r="R5" s="44">
+        <f t="shared" si="1"/>
+        <v>2.9853075096336172</v>
+      </c>
+      <c r="S5" s="45">
+        <f t="shared" si="1"/>
+        <v>6.1242739939159803</v>
+      </c>
+      <c r="T5" s="43">
+        <f t="shared" si="1"/>
+        <v>2.9853075096336172</v>
+      </c>
+      <c r="U5" s="45">
+        <f t="shared" si="1"/>
+        <v>6.1047655003734622</v>
+      </c>
+      <c r="X5" s="27" t="str">
+        <f>'Aileron shear'!A3</f>
+        <v>EI_zz</v>
+      </c>
+      <c r="Y5" s="27">
+        <f>'Aileron shear'!B3</f>
+        <v>416471095.73144674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="113"/>
+      <c r="B6" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="47">
+        <f>'Aileron shear'!O45</f>
+        <v>431.75481011687015</v>
+      </c>
+      <c r="D6" s="48">
+        <f>'Aileron shear'!P45</f>
+        <v>81.08511687921559</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="47">
+        <f>'Aileron shear'!R45</f>
+        <v>-442.75615854342055</v>
+      </c>
+      <c r="G6" s="48">
+        <f>'Aileron shear'!S45</f>
+        <v>256.38552908591925</v>
+      </c>
+      <c r="I6" s="72">
+        <f>'Aileron torsion'!E$6</f>
+        <v>418</v>
+      </c>
+      <c r="J6" s="44">
+        <f t="shared" ref="J6:U6" si="2">J16+J26+J36+J46</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="45">
+        <f t="shared" si="2"/>
+        <v>1.4693076277561357</v>
+      </c>
+      <c r="L6" s="43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="62">
+        <f t="shared" si="2"/>
+        <v>1.4693076277561357</v>
+      </c>
+      <c r="N6" s="44">
+        <f t="shared" si="2"/>
+        <v>-0.64410206976539541</v>
+      </c>
+      <c r="O6" s="45">
+        <f t="shared" si="2"/>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="P6" s="43">
+        <f t="shared" si="2"/>
+        <v>-0.64410206976539541</v>
+      </c>
+      <c r="Q6" s="62">
+        <f t="shared" si="2"/>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="R6" s="44">
+        <f t="shared" si="2"/>
+        <v>0.64410206976539541</v>
+      </c>
+      <c r="S6" s="45">
+        <f t="shared" si="2"/>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="T6" s="43">
+        <f t="shared" si="2"/>
+        <v>0.64410206976539541</v>
+      </c>
+      <c r="U6" s="45">
+        <f t="shared" si="2"/>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="X6" s="27" t="str">
+        <f>'Aileron shear'!A4</f>
+        <v>L01</v>
+      </c>
+      <c r="Y6" s="27">
+        <f>'Aileron shear'!B4</f>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" s="120" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="26">
+        <f>'Aileron shear'!O46</f>
+        <v>5.6625487741662281</v>
+      </c>
+      <c r="D7" s="50">
+        <f>'Aileron shear'!P46</f>
+        <v>-115.13451789379474</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="26">
+        <f>'Aileron shear'!R46</f>
+        <v>5.6625487741662281</v>
+      </c>
+      <c r="G7" s="50">
+        <f>'Aileron shear'!S46</f>
+        <v>-115.13451789379474</v>
+      </c>
+      <c r="I7" s="72">
+        <f>'Aileron torsion'!E$7</f>
+        <v>690</v>
+      </c>
+      <c r="J7" s="44">
+        <f t="shared" ref="J7:U7" si="3">J17+J27+J37+J47</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <f t="shared" si="3"/>
+        <v>0.25648000431932794</v>
+      </c>
+      <c r="L7" s="43">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="62">
+        <f t="shared" si="3"/>
+        <v>-1.7202300528100192</v>
+      </c>
+      <c r="N7" s="44">
+        <f t="shared" si="3"/>
+        <v>4.2432423039329661E-2</v>
+      </c>
+      <c r="O7" s="45">
+        <f t="shared" si="3"/>
+        <v>0.23083939204146284</v>
+      </c>
+      <c r="P7" s="43">
+        <f t="shared" si="3"/>
+        <v>4.2432423039329661E-2</v>
+      </c>
+      <c r="Q7" s="62">
+        <f t="shared" si="3"/>
+        <v>-1.5475878446192819</v>
+      </c>
+      <c r="R7" s="44">
+        <f t="shared" si="3"/>
+        <v>-4.2432423039329661E-2</v>
+      </c>
+      <c r="S7" s="45">
+        <f t="shared" si="3"/>
+        <v>0.23083939204146284</v>
+      </c>
+      <c r="T7" s="43">
+        <f t="shared" si="3"/>
+        <v>-4.2432423039329661E-2</v>
+      </c>
+      <c r="U7" s="45">
+        <f t="shared" si="3"/>
+        <v>-1.5475878446192819</v>
+      </c>
+      <c r="X7" s="27" t="str">
+        <f>'Aileron shear'!A5</f>
+        <v>L12</v>
+      </c>
+      <c r="Y7" s="27">
+        <f>'Aileron shear'!B5</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="112"/>
+      <c r="B8" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="27">
+        <f>'Aileron shear'!O47</f>
+        <v>628.93863916869407</v>
+      </c>
+      <c r="D8" s="45">
+        <f>'Aileron shear'!P47</f>
+        <v>-100.9999212065873</v>
+      </c>
+      <c r="E8" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="27">
+        <f>'Aileron shear'!R47</f>
+        <v>85.431371776755029</v>
+      </c>
+      <c r="G8" s="45">
+        <f>'Aileron shear'!S47</f>
+        <v>571.1117985859164</v>
+      </c>
+      <c r="I8" s="80">
+        <f>'Aileron torsion'!E$8</f>
+        <v>1541</v>
+      </c>
+      <c r="J8" s="44">
+        <f t="shared" ref="J8:U8" si="4">J18+J28+J38+J48</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="45">
+        <f t="shared" si="4"/>
+        <v>20.687277816758932</v>
+      </c>
+      <c r="L8" s="43">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="62">
+        <f t="shared" si="4"/>
+        <v>18.520312922986399</v>
+      </c>
+      <c r="N8" s="44">
+        <f t="shared" si="4"/>
+        <v>-8.8989342798182705</v>
+      </c>
+      <c r="O8" s="45">
+        <f t="shared" si="4"/>
+        <v>18.593918827004224</v>
+      </c>
+      <c r="P8" s="43">
+        <f t="shared" si="4"/>
+        <v>-8.8989342798182705</v>
+      </c>
+      <c r="Q8" s="62">
+        <f t="shared" si="4"/>
+        <v>16.644491675888965</v>
+      </c>
+      <c r="R8" s="44">
+        <f t="shared" si="4"/>
+        <v>8.8989342798182705</v>
+      </c>
+      <c r="S8" s="45">
+        <f t="shared" si="4"/>
+        <v>18.593918827004224</v>
+      </c>
+      <c r="T8" s="43">
+        <f t="shared" si="4"/>
+        <v>8.8989342798182705</v>
+      </c>
+      <c r="U8" s="45">
+        <f t="shared" si="4"/>
+        <v>16.644491675888965</v>
+      </c>
+      <c r="X8" s="27" t="str">
+        <f>'Aileron shear'!A6</f>
+        <v>L23</v>
+      </c>
+      <c r="Y8" s="27">
+        <f>'Aileron shear'!B6</f>
+        <v>986.99999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="113"/>
+      <c r="B9" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C9" s="47">
+        <f>'Aileron shear'!O48</f>
+        <v>-618.75970891849545</v>
+      </c>
+      <c r="D9" s="48">
+        <f>'Aileron shear'!P48</f>
+        <v>-105.96451720634796</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="47">
+        <f>'Aileron shear'!R48</f>
+        <v>286.39441933571612</v>
+      </c>
+      <c r="G9" s="48">
+        <f>'Aileron shear'!S48</f>
+        <v>-624.13523516997066</v>
+      </c>
+      <c r="I9" s="81">
+        <f>'Aileron torsion'!E$9</f>
+        <v>1691</v>
+      </c>
+      <c r="J9" s="46">
+        <f t="shared" ref="J9:U9" si="5">J19+J29+J39+J49</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="48">
+        <f t="shared" si="5"/>
+        <v>25.769009610255154</v>
+      </c>
+      <c r="L9" s="49">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="63">
+        <f t="shared" si="5"/>
+        <v>23.553463410336288</v>
+      </c>
+      <c r="N9" s="46">
+        <f t="shared" si="5"/>
+        <v>-11.12281275891144</v>
+      </c>
+      <c r="O9" s="48">
+        <f t="shared" si="5"/>
+        <v>23.161349107887819</v>
+      </c>
+      <c r="P9" s="49">
+        <f t="shared" si="5"/>
+        <v>-11.12281275891144</v>
+      </c>
+      <c r="Q9" s="63">
+        <f t="shared" si="5"/>
+        <v>21.168257368046795</v>
+      </c>
+      <c r="R9" s="46">
+        <f t="shared" si="5"/>
+        <v>11.12281275891144</v>
+      </c>
+      <c r="S9" s="48">
+        <f t="shared" si="5"/>
+        <v>23.161349107887819</v>
+      </c>
+      <c r="T9" s="49">
+        <f t="shared" si="5"/>
+        <v>11.12281275891144</v>
+      </c>
+      <c r="U9" s="48">
+        <f t="shared" si="5"/>
+        <v>21.168257368046795</v>
+      </c>
+      <c r="X9" s="27" t="str">
+        <f>'Aileron shear'!A7</f>
+        <v>L34</v>
+      </c>
+      <c r="Y9" s="27">
+        <f>'Aileron shear'!B7</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="26">
+        <f>'Aileron shear'!O49</f>
+        <v>5.405031625506787</v>
+      </c>
+      <c r="D10" s="50">
+        <f>'Aileron shear'!P49</f>
+        <v>35.79114052585264</v>
+      </c>
+      <c r="E10" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="26">
+        <f>'Aileron shear'!R49</f>
+        <v>5.405031625506787</v>
+      </c>
+      <c r="G10" s="50">
+        <f>'Aileron shear'!S49</f>
+        <v>35.79114052585264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="112"/>
+      <c r="B11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="27">
+        <f>'Aileron shear'!O50</f>
+        <v>-177.65499492328593</v>
+      </c>
+      <c r="D11" s="45">
+        <f>'Aileron shear'!P50</f>
+        <v>34.538273926997839</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="27">
+        <f>'Aileron shear'!R50</f>
+        <v>-177.65499492328593</v>
+      </c>
+      <c r="G11" s="45">
+        <f>'Aileron shear'!S50</f>
+        <v>34.538273926997839</v>
+      </c>
+      <c r="I11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J11" s="145" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="146"/>
+      <c r="Q11" s="146"/>
+      <c r="R11" s="146"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="146"/>
+      <c r="U11" s="147"/>
+      <c r="X11" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y11" s="148"/>
+      <c r="Z11" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA11" s="148"/>
+      <c r="AB11" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC11" s="148"/>
+      <c r="AD11" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE11" s="148"/>
+      <c r="AF11" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG11" s="148"/>
+      <c r="AH11" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI11" s="148"/>
+    </row>
+    <row r="12" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="113"/>
+      <c r="B12" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="47">
+        <f>'Aileron shear'!O51</f>
+        <v>187.37101541341434</v>
+      </c>
+      <c r="D12" s="48">
+        <f>'Aileron shear'!P51</f>
+        <v>29.799454102788552</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="47">
+        <f>'Aileron shear'!R51</f>
+        <v>-177.65499492328593</v>
+      </c>
+      <c r="G12" s="48">
+        <f>'Aileron shear'!S51</f>
+        <v>34.538273926997839</v>
+      </c>
+      <c r="I12" t="s">
+        <v>160</v>
+      </c>
+      <c r="J12" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O12" s="143"/>
+      <c r="P12" s="143"/>
+      <c r="Q12" s="144"/>
+      <c r="R12" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143"/>
+      <c r="U12" s="144"/>
+      <c r="X12" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y12" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z12" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA12" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC12" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE12" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG12" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH12" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI12" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="26">
+        <f>F13</f>
+        <v>39.727746184971103</v>
+      </c>
+      <c r="D13" s="50">
+        <f>G13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="26">
+        <f>'Aileron torsion'!B14</f>
+        <v>39.727746184971103</v>
+      </c>
+      <c r="G13" s="50">
+        <v>0</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K13" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L13" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O13" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="R13" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="S13" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T13" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U13" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="X13" s="10">
+        <f>'Aileron shear'!O4</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="10">
+        <f>'Aileron shear'!O10</f>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="10">
+        <f>'Aileron shear'!P4</f>
+        <v>82.846966380527974</v>
+      </c>
+      <c r="AA13" s="10">
+        <f>'Aileron shear'!P10</f>
+        <v>33.994955809639144</v>
+      </c>
+      <c r="AB13" s="10">
+        <f>'Aileron shear'!O5</f>
+        <v>-442.87204120856944</v>
+      </c>
+      <c r="AC13" s="10">
+        <f>'Aileron shear'!O11</f>
+        <v>-181.72560961445862</v>
+      </c>
+      <c r="AD13" s="10">
+        <f>'Aileron shear'!P5</f>
+        <v>74.46236013676581</v>
+      </c>
+      <c r="AE13" s="10">
+        <f>'Aileron shear'!P11</f>
+        <v>30.554463885906948</v>
+      </c>
+      <c r="AF13" s="10">
+        <f>'Aileron shear'!O6</f>
+        <v>442.87204120856944</v>
+      </c>
+      <c r="AG13" s="10">
+        <f>'Aileron shear'!O12</f>
+        <v>181.72560961445862</v>
+      </c>
+      <c r="AH13" s="10">
+        <f>'Aileron shear'!P6</f>
+        <v>74.46236013676581</v>
+      </c>
+      <c r="AI13" s="10">
+        <f>'Aileron shear'!P12</f>
+        <v>30.554463885906948</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" s="112"/>
+      <c r="B14" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="27">
+        <f>F14*COS(PI()/180*Input!$C$17)</f>
+        <v>35.707061743936471</v>
+      </c>
+      <c r="D14" s="45">
+        <f>F14*SIN(PI()/180*Input!$C$17)</f>
+        <v>17.415497654451176</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="27">
+        <f>'Aileron torsion'!B19</f>
+        <v>39.727746184971103</v>
+      </c>
+      <c r="G14" s="45">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>SQRT(D14^2+C14^2)</f>
+        <v>39.727746184971103</v>
+      </c>
+      <c r="I14" s="55">
+        <f>'Aileron torsion'!E$4</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="76">
+        <v>0</v>
+      </c>
+      <c r="K14" s="77">
+        <f>-Z13*$Y$6*$Y$7^2/(6*$Y$5)+K15*$Y$6/$Y$7+K15</f>
+        <v>8.505124254436021</v>
+      </c>
+      <c r="L14" s="76">
+        <f>J14</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="77">
+        <f>K14</f>
+        <v>8.505124254436021</v>
+      </c>
+      <c r="N14" s="76">
+        <f>-AB13*$Y$6*$Y$7^2/(6*$Y$4)+N15*$Y$6/$Y$7+N15</f>
+        <v>-3.7284010730007155</v>
+      </c>
+      <c r="O14" s="77">
+        <f>-AD13*$Y$6*$Y$7^2/(6*$Y$5)+O15*$Y$6/$Y$7+O15</f>
+        <v>7.6443550429217382</v>
+      </c>
+      <c r="P14" s="76">
+        <f>N14</f>
+        <v>-3.7284010730007155</v>
+      </c>
+      <c r="Q14" s="77">
+        <f>O14</f>
+        <v>7.6443550429217382</v>
+      </c>
+      <c r="R14" s="76">
+        <f>-AF13*$Y$6*$Y$7^2/(6*$Y$4)+R15*$Y$6/$Y$7+R15</f>
+        <v>3.7284010730007155</v>
+      </c>
+      <c r="S14" s="77">
+        <f>-AH13*$Y$6*$Y$7^2/(6*$Y$5)+S15*$Y$6/$Y$7+S15</f>
+        <v>7.6443550429217382</v>
+      </c>
+      <c r="T14" s="75">
+        <f>R14</f>
+        <v>3.7284010730007155</v>
+      </c>
+      <c r="U14" s="77">
+        <f>S14</f>
+        <v>7.6443550429217382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="113"/>
+      <c r="B15" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="47">
+        <f>F15*COS(PI()/180*Input!$C$17)</f>
+        <v>35.707061743936471</v>
+      </c>
+      <c r="D15" s="48">
+        <f>F15*SIN(-PI()/180*Input!$C$17)</f>
+        <v>-17.415497654451176</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="47">
+        <f>'Aileron torsion'!B24</f>
+        <v>39.727746184971103</v>
+      </c>
+      <c r="G15" s="48">
+        <v>0</v>
+      </c>
+      <c r="I15" s="72">
+        <f>'Aileron torsion'!E$5</f>
+        <v>149</v>
+      </c>
+      <c r="J15" s="44">
+        <v>0</v>
+      </c>
+      <c r="K15" s="45">
+        <f>'Aileron shear'!$H$4</f>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="L15" s="44">
+        <f>J15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="45">
+        <f>K15</f>
+        <v>6.8100000000000005</v>
+      </c>
+      <c r="N15" s="44">
+        <f>'Aileron shear'!G5</f>
+        <v>-2.9853075096336172</v>
+      </c>
+      <c r="O15" s="45">
+        <f>'Aileron shear'!H5</f>
+        <v>6.1207874552973278</v>
+      </c>
+      <c r="P15" s="44">
+        <f t="shared" ref="P15" si="6">N15</f>
+        <v>-2.9853075096336172</v>
+      </c>
+      <c r="Q15" s="45">
+        <f t="shared" ref="Q15" si="7">O15</f>
+        <v>6.1207874552973278</v>
+      </c>
+      <c r="R15" s="43">
+        <f>'Aileron shear'!G6</f>
+        <v>2.9853075096336172</v>
+      </c>
+      <c r="S15" s="45">
+        <f>'Aileron shear'!H6</f>
+        <v>6.1207874552973278</v>
+      </c>
+      <c r="T15" s="43">
+        <f t="shared" ref="T15:T18" si="8">R15</f>
+        <v>2.9853075096336172</v>
+      </c>
+      <c r="U15" s="45">
+        <f t="shared" ref="U15:U18" si="9">S15</f>
+        <v>6.1207874552973278</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="72">
+        <f>'Aileron torsion'!E$6</f>
+        <v>418</v>
+      </c>
+      <c r="J16" s="44">
+        <v>0</v>
+      </c>
+      <c r="K16" s="45">
+        <f>K15+1/$Y$5*(1/6*Z13*($I$16-$I$15)^3-(1/6*Z13*$Y$7^2+$Y$5*K15/$Y$7)*($I$16-$I$15))</f>
+        <v>1.4693076277561357</v>
+      </c>
+      <c r="L16" s="44">
+        <f t="shared" ref="L16:L18" si="10">J16</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="45">
+        <f t="shared" ref="M16:M18" si="11">K16</f>
+        <v>1.4693076277561357</v>
+      </c>
+      <c r="N16" s="44">
+        <f>N15+1/$Y$4*(1/6*AB13*($I$16-$I$15)^3-(1/6*AB13*$Y$7^2+$Y$4*N15/$Y$7)*($I$16-$I$15))</f>
+        <v>-0.64410206976539541</v>
+      </c>
+      <c r="O16" s="45">
+        <f>O15+1/$Y$5*(1/6*AD13*($I$16-$I$15)^3-(1/6*AD13*$Y$7^2+$Y$5*O15/$Y$7)*($I$16-$I$15))</f>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="P16" s="44">
+        <f t="shared" ref="P16:P17" si="12">N16</f>
+        <v>-0.64410206976539541</v>
+      </c>
+      <c r="Q16" s="45">
+        <f t="shared" ref="Q16:Q17" si="13">O16</f>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="R16" s="44">
+        <f>R15+1/$Y$4*(1/6*AF13*($I$16-$I$15)^3-(1/6*AF13*$Y$7^2+$Y$4*R15/$Y$7)*($I$16-$I$15))</f>
+        <v>0.64410206976539541</v>
+      </c>
+      <c r="S16" s="45">
+        <f>S15+1/$Y$5*(1/6*AH13*($I$16-$I$15)^3-(1/6*AH13*$Y$7^2+$Y$5*S15/$Y$7)*($I$16-$I$15))</f>
+        <v>1.3206049480091657</v>
+      </c>
+      <c r="T16" s="43">
+        <f t="shared" si="8"/>
+        <v>0.64410206976539541</v>
+      </c>
+      <c r="U16" s="45">
+        <f t="shared" si="9"/>
+        <v>1.3206049480091657</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="125"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="126"/>
+      <c r="I17" s="72">
+        <f>'Aileron torsion'!E$7</f>
+        <v>690</v>
+      </c>
+      <c r="J17" s="44">
+        <v>0</v>
+      </c>
+      <c r="K17" s="45">
+        <f>-1/$Y$5*(1/6*AA13*($I$17-$Y$6-$Y$7)^3-1/2*AA13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AA13*$Y$8^2-$Y$5*K18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
+        <v>-9.6795656717218598E-2</v>
+      </c>
+      <c r="L17" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="45">
+        <f t="shared" si="11"/>
+        <v>-9.6795656717218598E-2</v>
+      </c>
+      <c r="N17" s="43">
+        <f>-1/$Y$4*(1/6*AC13*($I$17-$Y$6-$Y$7)^3-1/2*AC13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AC13*$Y$8^2-$Y$4*N18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
+        <v>4.2432423039329661E-2</v>
+      </c>
+      <c r="O17" s="45">
+        <f>-1/$Y$5*(1/6*AE13*($I$17-$Y$6-$Y$7)^3-1/2*AE13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AE13*$Y$8^2-$Y$5*O18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
+        <v>-8.6999359965054562E-2</v>
+      </c>
+      <c r="P17" s="44">
+        <f t="shared" si="12"/>
+        <v>4.2432423039329661E-2</v>
+      </c>
+      <c r="Q17" s="45">
+        <f t="shared" si="13"/>
+        <v>-8.6999359965054562E-2</v>
+      </c>
+      <c r="R17" s="43">
+        <f>-1/$Y$4*(1/6*AG13*($I$17-$Y$6-$Y$7)^3-1/2*AG13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AG13*$Y$8^2-$Y$4*R18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
+        <v>-4.2432423039329661E-2</v>
+      </c>
+      <c r="S17" s="45">
+        <f>-1/$Y$5*(1/6*AI13*($I$17-$Y$6-$Y$7)^3-1/2*AI13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AI13*$Y$8^2-$Y$5*S18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
+        <v>-8.6999359965054562E-2</v>
+      </c>
+      <c r="T17" s="43">
+        <f t="shared" si="8"/>
+        <v>-4.2432423039329661E-2</v>
+      </c>
+      <c r="U17" s="45">
+        <f t="shared" si="9"/>
+        <v>-8.6999359965054562E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="109"/>
+      <c r="D18" s="111"/>
+      <c r="E18" s="108" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="111"/>
+      <c r="I18" s="80">
+        <f>'Aileron torsion'!E$8</f>
+        <v>1541</v>
+      </c>
+      <c r="J18" s="44">
+        <v>0</v>
+      </c>
+      <c r="K18" s="45">
+        <f>'Aileron shear'!$H$7</f>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="L18" s="44">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="45">
+        <f t="shared" si="11"/>
+        <v>20.299999999999997</v>
+      </c>
+      <c r="N18" s="44">
+        <f>'Aileron shear'!G8</f>
+        <v>-8.8989342798182705</v>
+      </c>
+      <c r="O18" s="45">
+        <f>'Aileron shear'!H8</f>
+        <v>18.245519139873089</v>
+      </c>
+      <c r="P18" s="44">
+        <f t="shared" ref="P18" si="14">N18</f>
+        <v>-8.8989342798182705</v>
+      </c>
+      <c r="Q18" s="45">
+        <f t="shared" ref="Q18" si="15">O18</f>
+        <v>18.245519139873089</v>
+      </c>
+      <c r="R18" s="43">
+        <f>'Aileron shear'!G9</f>
+        <v>8.8989342798182705</v>
+      </c>
+      <c r="S18" s="45">
+        <f>'Aileron shear'!H9</f>
+        <v>18.245519139873089</v>
+      </c>
+      <c r="T18" s="43">
+        <f t="shared" si="8"/>
+        <v>8.8989342798182705</v>
+      </c>
+      <c r="U18" s="45">
+        <f t="shared" si="9"/>
+        <v>18.245519139873089</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="56" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="D19" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="81">
+        <f>'Aileron torsion'!E$9</f>
+        <v>1691</v>
+      </c>
+      <c r="J19" s="46">
+        <v>0</v>
+      </c>
+      <c r="K19" s="48">
+        <f>K18+$Y$9/$Y$5*(1/6*AA13*$Y$8^2+$Y$5*K18/$Y$8)</f>
+        <v>25.373049390641555</v>
+      </c>
+      <c r="L19" s="46">
+        <f>J19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="48">
+        <f>K19</f>
+        <v>25.373049390641555</v>
+      </c>
+      <c r="N19" s="46">
+        <f>N18+$Y$9/$Y$4*(1/6*AC13*$Y$8^2+$Y$4*N18/$Y$8)</f>
+        <v>-11.12281275891144</v>
+      </c>
+      <c r="O19" s="48">
+        <f>O18+$Y$9/$Y$5*(1/6*AE13*$Y$8^2+$Y$5*O18/$Y$8)</f>
+        <v>22.805145728763339</v>
+      </c>
+      <c r="P19" s="46">
+        <f>N19</f>
+        <v>-11.12281275891144</v>
+      </c>
+      <c r="Q19" s="48">
+        <f>O19</f>
+        <v>22.805145728763339</v>
+      </c>
+      <c r="R19" s="46">
+        <f>R18+$Y$9/$Y$4*(1/6*AG13*$Y$8^2+$Y$4*R18/$Y$8)</f>
+        <v>11.12281275891144</v>
+      </c>
+      <c r="S19" s="48">
+        <f>S18+$Y$9/$Y$5*(1/6*AI13*$Y$8^2+$Y$5*S18/$Y$8)</f>
+        <v>22.805145728763339</v>
+      </c>
+      <c r="T19" s="49">
+        <f>R19</f>
+        <v>11.12281275891144</v>
+      </c>
+      <c r="U19" s="48">
+        <f>S19</f>
+        <v>22.805145728763339</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="53">
+        <f>F20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="54">
+        <f>G20</f>
+        <v>-2.71</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="114">
+        <v>0</v>
+      </c>
+      <c r="G20" s="117">
+        <f>-Input!C19</f>
+        <v>-2.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="112"/>
+      <c r="B21" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C21" s="27">
+        <f>-G20*SIN(PI()/180*Input!$C$17)</f>
+        <v>1.1879858077983998</v>
+      </c>
+      <c r="D21" s="45">
+        <f>G20*COS(PI()/180*Input!$C$17)</f>
+        <v>-2.4357318654707427</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F21" s="115"/>
+      <c r="G21" s="118"/>
+      <c r="I21" t="s">
+        <v>159</v>
+      </c>
+      <c r="J21" s="145" t="s">
+        <v>164</v>
+      </c>
+      <c r="K21" s="146"/>
+      <c r="L21" s="146"/>
+      <c r="M21" s="146"/>
+      <c r="N21" s="146"/>
+      <c r="O21" s="146"/>
+      <c r="P21" s="146"/>
+      <c r="Q21" s="146"/>
+      <c r="R21" s="146"/>
+      <c r="S21" s="146"/>
+      <c r="T21" s="146"/>
+      <c r="U21" s="147"/>
+      <c r="X21" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y21" s="148"/>
+      <c r="Z21" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA21" s="148"/>
+      <c r="AB21" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC21" s="148"/>
+      <c r="AD21" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE21" s="148"/>
+      <c r="AF21" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG21" s="148"/>
+      <c r="AH21" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI21" s="148"/>
+    </row>
+    <row r="22" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="113"/>
+      <c r="B22" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="47">
+        <f>G20*SIN(PI()/180*Input!$C$17)</f>
+        <v>-1.1879858077983998</v>
+      </c>
+      <c r="D22" s="48">
+        <f>G20*COS(-PI()/180*Input!$C$17)</f>
+        <v>-2.4357318654707427</v>
+      </c>
+      <c r="E22" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="116"/>
+      <c r="G22" s="119"/>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="K22" s="143"/>
+      <c r="L22" s="143"/>
+      <c r="M22" s="144"/>
+      <c r="N22" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O22" s="143"/>
+      <c r="P22" s="143"/>
+      <c r="Q22" s="144"/>
+      <c r="R22" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="S22" s="143"/>
+      <c r="T22" s="143"/>
+      <c r="U22" s="144"/>
+      <c r="X22" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y22" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z22" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA22" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC22" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE22" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG22" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH22" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI22" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="120" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="53">
+        <f>-F23</f>
+        <v>-37.9</v>
+      </c>
+      <c r="D23" s="54">
+        <f>G23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="114">
+        <f>Input!$C$18</f>
+        <v>37.9</v>
+      </c>
+      <c r="G23" s="117">
+        <v>0</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L23" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M23" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N23" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O23" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="P23" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="R23" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="S23" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T23" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U23" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="X23" s="10">
+        <f>'Aileron shear'!O17</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="10">
+        <f>'Aileron shear'!O23</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="10">
+        <f>'Aileron shear'!P17</f>
+        <v>1.0790209874141234</v>
+      </c>
+      <c r="AA23" s="10">
+        <f>'Aileron shear'!P23</f>
+        <v>1.7961847162134956</v>
+      </c>
+      <c r="AB23" s="10">
+        <f>'Aileron shear'!O18</f>
+        <v>-0.47301166766221192</v>
+      </c>
+      <c r="AC23" s="10">
+        <f>'Aileron shear'!O24</f>
+        <v>-0.78739555389152349</v>
+      </c>
+      <c r="AD23" s="10">
+        <f>'Aileron shear'!P18</f>
+        <v>0.96981763931966269</v>
+      </c>
+      <c r="AE23" s="10">
+        <f>'Aileron shear'!P24</f>
+        <v>1.6144001289862491</v>
+      </c>
+      <c r="AF23" s="10">
+        <f>'Aileron shear'!O19</f>
+        <v>0.47301166766221192</v>
+      </c>
+      <c r="AG23" s="10">
+        <f>'Aileron shear'!O25</f>
+        <v>0.78739555389152349</v>
+      </c>
+      <c r="AH23" s="10">
+        <f>'Aileron shear'!P19</f>
+        <v>0.96981763931966269</v>
+      </c>
+      <c r="AI23" s="10">
+        <f>'Aileron shear'!P25</f>
+        <v>1.6144001289862491</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="112"/>
+      <c r="B24" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="27">
+        <f>-F23*COS(PI()/180*Input!$C$17)</f>
+        <v>-34.064294354738429</v>
+      </c>
+      <c r="D24" s="45">
+        <f>-F23*SIN(PI()/180*Input!$C$17)</f>
+        <v>-16.614266463306034</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="F24" s="115"/>
+      <c r="G24" s="118"/>
+      <c r="I24" s="55">
+        <f>'Aileron torsion'!E$4</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="78"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="75"/>
+      <c r="Q24" s="78"/>
+      <c r="R24" s="76"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="75"/>
+      <c r="U24" s="77"/>
+    </row>
+    <row r="25" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="113"/>
+      <c r="B25" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="47">
+        <f>-F23*COS(PI()/180*Input!$C$17)</f>
+        <v>-34.064294354738429</v>
+      </c>
+      <c r="D25" s="48">
+        <f>-F23*SIN(-PI()/180*Input!$C$17)</f>
+        <v>16.614266463306034</v>
+      </c>
+      <c r="E25" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" s="116"/>
+      <c r="G25" s="119"/>
+      <c r="I25" s="72">
+        <f>'Aileron torsion'!E$5</f>
+        <v>149</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="44"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="45"/>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I26" s="72">
+        <f>'Aileron torsion'!E$6</f>
+        <v>418</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="45"/>
+      <c r="R26" s="44"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="45"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="84" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="72">
+        <f>'Aileron torsion'!E$7</f>
+        <v>690</v>
+      </c>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="45"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="45"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="44"/>
+      <c r="S27" s="45"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="45"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="I28" s="80">
+        <f>'Aileron torsion'!E$8</f>
+        <v>1541</v>
+      </c>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="45"/>
+      <c r="N28" s="44"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="45"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="45"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="45"/>
+    </row>
+    <row r="29" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f>C5+C8+C11+C14+C21*1.69+C24</f>
+        <v>-1.1879858076682126E-3</v>
+      </c>
+      <c r="I29" s="81">
+        <f>'Aileron torsion'!E$9</f>
+        <v>1691</v>
+      </c>
+      <c r="J29" s="46"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="49"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="46"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="49"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="46"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="48"/>
+    </row>
+    <row r="30" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J31" s="145" t="s">
+        <v>165</v>
+      </c>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
+      <c r="R31" s="146"/>
+      <c r="S31" s="146"/>
+      <c r="T31" s="146"/>
+      <c r="U31" s="147"/>
+      <c r="X31" s="148" t="s">
+        <v>176</v>
+      </c>
+      <c r="Y31" s="148"/>
+      <c r="Z31" s="148" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA31" s="148"/>
+      <c r="AB31" s="148" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC31" s="148"/>
+      <c r="AD31" s="148" t="s">
+        <v>179</v>
+      </c>
+      <c r="AE31" s="148"/>
+      <c r="AF31" s="148" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG31" s="148"/>
+      <c r="AH31" s="148" t="s">
+        <v>181</v>
+      </c>
+      <c r="AI31" s="148"/>
+    </row>
+    <row r="32" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>160</v>
+      </c>
+      <c r="J32" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="K32" s="143"/>
+      <c r="L32" s="143"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O32" s="143"/>
+      <c r="P32" s="143"/>
+      <c r="Q32" s="144"/>
+      <c r="R32" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="S32" s="143"/>
+      <c r="T32" s="143"/>
+      <c r="U32" s="144"/>
+      <c r="X32" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y32" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z32" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA32" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="AB32" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AC32" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AD32" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE32" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF32" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG32" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AH32" s="27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI32" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I33" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J33" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K33" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L33" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M33" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N33" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O33" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="P33" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q33" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="R33" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="S33" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T33" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U33" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="X33" s="10">
+        <f>'Aileron shear'!O30</f>
+        <v>-12.895326584644117</v>
+      </c>
+      <c r="Y33" s="10">
+        <f>'Aileron shear'!O36</f>
+        <v>5.405031625506787</v>
+      </c>
+      <c r="Z33" s="10">
+        <f>'Aileron shear'!P30</f>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="10">
+        <f>'Aileron shear'!P36</f>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="10">
+        <f>'Aileron shear'!O31</f>
+        <v>-11.590242759361505</v>
+      </c>
+      <c r="AC33" s="10">
+        <f>'Aileron shear'!O37</f>
+        <v>4.8580102450642118</v>
+      </c>
+      <c r="AD33" s="10">
+        <f>'Aileron shear'!P31</f>
+        <v>-5.6529391031301177</v>
+      </c>
+      <c r="AE33" s="10">
+        <f>'Aileron shear'!P37</f>
+        <v>2.3694099121046417</v>
+      </c>
+      <c r="AF33" s="10">
+        <f>'Aileron shear'!O32</f>
+        <v>-11.590242759361505</v>
+      </c>
+      <c r="AG33" s="10">
+        <f>'Aileron shear'!O38</f>
+        <v>4.8580102450642118</v>
+      </c>
+      <c r="AH33" s="10">
+        <f>'Aileron shear'!P32</f>
+        <v>5.6529391031301177</v>
+      </c>
+      <c r="AI33" s="10">
+        <f>'Aileron shear'!P38</f>
+        <v>-2.3694099121046417</v>
+      </c>
+    </row>
+    <row r="34" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I34" s="55">
+        <f>'Aileron torsion'!E$4</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="76"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="78"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="77"/>
+      <c r="P34" s="75"/>
+      <c r="Q34" s="78"/>
+      <c r="R34" s="76"/>
+      <c r="S34" s="77"/>
+      <c r="T34" s="75"/>
+      <c r="U34" s="77"/>
+    </row>
+    <row r="35" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I35" s="72">
+        <f>'Aileron torsion'!E$5</f>
+        <v>149</v>
+      </c>
+      <c r="J35" s="44"/>
+      <c r="K35" s="45"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="45"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="45"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="45"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="45"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="45"/>
+    </row>
+    <row r="36" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I36" s="72">
+        <f>'Aileron torsion'!E$6</f>
+        <v>418</v>
+      </c>
+      <c r="J36" s="44"/>
+      <c r="K36" s="45"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="44"/>
+      <c r="O36" s="45"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="45"/>
+      <c r="R36" s="44"/>
+      <c r="S36" s="45"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="45"/>
+    </row>
+    <row r="37" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I37" s="72">
+        <f>'Aileron torsion'!E$7</f>
+        <v>690</v>
+      </c>
+      <c r="J37" s="44"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="45"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="45"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="45"/>
+    </row>
+    <row r="38" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I38" s="80">
+        <f>'Aileron torsion'!E$8</f>
+        <v>1541</v>
+      </c>
+      <c r="J38" s="44"/>
+      <c r="K38" s="45"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="45"/>
+      <c r="N38" s="44"/>
+      <c r="O38" s="45"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="45"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="45"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="45"/>
+    </row>
+    <row r="39" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="81">
+        <f>'Aileron torsion'!E$9</f>
+        <v>1691</v>
+      </c>
+      <c r="J39" s="46"/>
+      <c r="K39" s="48"/>
+      <c r="L39" s="49"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="46"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="49"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="46"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="49"/>
+      <c r="U39" s="48"/>
+    </row>
+    <row r="40" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>159</v>
+      </c>
+      <c r="J41" s="145" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41" s="146"/>
+      <c r="L41" s="146"/>
+      <c r="M41" s="146"/>
+      <c r="N41" s="146"/>
+      <c r="O41" s="146"/>
+      <c r="P41" s="146"/>
+      <c r="Q41" s="146"/>
+      <c r="R41" s="146"/>
+      <c r="S41" s="146"/>
+      <c r="T41" s="146"/>
+      <c r="U41" s="147"/>
+    </row>
+    <row r="42" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>160</v>
+      </c>
+      <c r="J42" s="142" t="s">
+        <v>115</v>
+      </c>
+      <c r="K42" s="143"/>
+      <c r="L42" s="143"/>
+      <c r="M42" s="144"/>
+      <c r="N42" s="142" t="s">
+        <v>153</v>
+      </c>
+      <c r="O42" s="143"/>
+      <c r="P42" s="143"/>
+      <c r="Q42" s="144"/>
+      <c r="R42" s="142" t="s">
+        <v>154</v>
+      </c>
+      <c r="S42" s="143"/>
+      <c r="T42" s="143"/>
+      <c r="U42" s="144"/>
+    </row>
+    <row r="43" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I43" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="K43" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="L43" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="M43" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="N43" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="O43" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="P43" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q43" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="R43" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="S43" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="T43" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="U43" s="48" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I44" s="55">
+        <f>'Aileron torsion'!E$4</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="76">
+        <v>0</v>
+      </c>
+      <c r="K44" s="54">
+        <f>'Aileron torsion'!G4</f>
+        <v>3.1291752400547392E-3</v>
+      </c>
+      <c r="L44" s="76">
+        <v>0</v>
+      </c>
+      <c r="M44" s="83">
+        <f>'Aileron torsion'!H4</f>
+        <v>-1.4379735929731316E-2</v>
+      </c>
+      <c r="N44" s="76">
+        <v>0</v>
+      </c>
+      <c r="O44" s="54">
+        <f>'Aileron torsion'!K4</f>
+        <v>2.8124840755879665E-3</v>
+      </c>
+      <c r="P44" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="83">
+        <f>'Aileron torsion'!L4</f>
+        <v>-1.2924421040996724E-2</v>
+      </c>
+      <c r="R44" s="76">
+        <v>0</v>
+      </c>
+      <c r="S44" s="54">
+        <f>'Aileron torsion'!O4</f>
+        <v>2.8124840755879665E-3</v>
+      </c>
+      <c r="T44" s="76">
+        <v>0</v>
+      </c>
+      <c r="U44" s="54">
+        <f>'Aileron torsion'!P4</f>
+        <v>-1.2924421040996724E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I45" s="72">
+        <f>'Aileron torsion'!E$5</f>
+        <v>149</v>
+      </c>
+      <c r="J45" s="44">
+        <v>0</v>
+      </c>
+      <c r="K45" s="45">
+        <f>'Aileron torsion'!G5</f>
+        <v>3.526778428537462E-3</v>
+      </c>
+      <c r="L45" s="44">
+        <v>0</v>
+      </c>
+      <c r="M45" s="62">
+        <f>'Aileron torsion'!H5</f>
+        <v>-1.6206871969290649E-2</v>
+      </c>
+      <c r="N45" s="44">
+        <v>0</v>
+      </c>
+      <c r="O45" s="45">
+        <f>'Aileron torsion'!K5</f>
+        <v>3.4865386186525762E-3</v>
+      </c>
+      <c r="P45" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="62">
+        <f>'Aileron torsion'!L5</f>
+        <v>-1.6021954923865885E-2</v>
+      </c>
+      <c r="R45" s="44">
+        <v>0</v>
+      </c>
+      <c r="S45" s="45">
+        <f>'Aileron torsion'!O5</f>
+        <v>3.4865386186525762E-3</v>
+      </c>
+      <c r="T45" s="44">
+        <v>0</v>
+      </c>
+      <c r="U45" s="45">
+        <f>'Aileron torsion'!P5</f>
+        <v>-1.6021954923865885E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I46" s="72">
+        <f>'Aileron torsion'!E$6</f>
+        <v>418</v>
+      </c>
+      <c r="J46" s="44">
+        <v>0</v>
+      </c>
+      <c r="K46" s="45">
+        <f>'Aileron torsion'!G6</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="44">
+        <v>0</v>
+      </c>
+      <c r="M46" s="62">
+        <f>'Aileron torsion'!H6</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="44">
+        <v>0</v>
+      </c>
+      <c r="O46" s="45">
+        <f>'Aileron torsion'!K6</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="62">
+        <f>'Aileron torsion'!L6</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="44">
+        <v>0</v>
+      </c>
+      <c r="S46" s="45">
+        <f>'Aileron torsion'!O6</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="44">
+        <v>0</v>
+      </c>
+      <c r="U46" s="45">
+        <f>'Aileron torsion'!P6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I47" s="72">
+        <f>'Aileron torsion'!E$7</f>
+        <v>690</v>
+      </c>
+      <c r="J47" s="44">
+        <v>0</v>
+      </c>
+      <c r="K47" s="45">
+        <f>'Aileron torsion'!G7</f>
+        <v>0.35327566103654656</v>
+      </c>
+      <c r="L47" s="44">
+        <v>0</v>
+      </c>
+      <c r="M47" s="62">
+        <f>'Aileron torsion'!H7</f>
+        <v>-1.6234343960928006</v>
+      </c>
+      <c r="N47" s="44">
+        <v>0</v>
+      </c>
+      <c r="O47" s="45">
+        <f>'Aileron torsion'!K7</f>
+        <v>0.3178387520065174</v>
+      </c>
+      <c r="P47" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="62">
+        <f>'Aileron torsion'!L7</f>
+        <v>-1.4605884846542274</v>
+      </c>
+      <c r="R47" s="44">
+        <v>0</v>
+      </c>
+      <c r="S47" s="45">
+        <f>'Aileron torsion'!O7</f>
+        <v>0.3178387520065174</v>
+      </c>
+      <c r="T47" s="44">
+        <v>0</v>
+      </c>
+      <c r="U47" s="45">
+        <f>'Aileron torsion'!P7</f>
+        <v>-1.4605884846542274</v>
+      </c>
+    </row>
+    <row r="48" spans="9:35" x14ac:dyDescent="0.25">
+      <c r="I48" s="80">
+        <f>'Aileron torsion'!E$8</f>
+        <v>1541</v>
+      </c>
+      <c r="J48" s="44">
+        <v>0</v>
+      </c>
+      <c r="K48" s="45">
+        <f>'Aileron torsion'!G8</f>
+        <v>0.38727781675893364</v>
+      </c>
+      <c r="L48" s="44">
+        <v>0</v>
+      </c>
+      <c r="M48" s="62">
+        <f>'Aileron torsion'!H8</f>
+        <v>-1.7796870770135969</v>
+      </c>
+      <c r="N48" s="44">
+        <v>0</v>
+      </c>
+      <c r="O48" s="45">
+        <f>'Aileron torsion'!K8</f>
+        <v>0.34839968713113606</v>
+      </c>
+      <c r="P48" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="62">
+        <f>'Aileron torsion'!L8</f>
+        <v>-1.6010274639841224</v>
+      </c>
+      <c r="R48" s="44">
+        <v>0</v>
+      </c>
+      <c r="S48" s="45">
+        <f>'Aileron torsion'!O8</f>
+        <v>0.34839968713113606</v>
+      </c>
+      <c r="T48" s="44">
+        <v>0</v>
+      </c>
+      <c r="U48" s="45">
+        <f>'Aileron torsion'!P8</f>
+        <v>-1.6010274639841224</v>
+      </c>
+    </row>
+    <row r="49" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I49" s="81">
+        <f>'Aileron torsion'!E$9</f>
+        <v>1691</v>
+      </c>
+      <c r="J49" s="46">
+        <v>0</v>
+      </c>
+      <c r="K49" s="48">
+        <f>'Aileron torsion'!G9</f>
+        <v>0.39596021961359895</v>
+      </c>
+      <c r="L49" s="46">
+        <v>0</v>
+      </c>
+      <c r="M49" s="63">
+        <f>'Aileron torsion'!H9</f>
+        <v>-1.819585980305267</v>
+      </c>
+      <c r="N49" s="46">
+        <v>0</v>
+      </c>
+      <c r="O49" s="48">
+        <f>'Aileron torsion'!K9</f>
+        <v>0.35620337912448019</v>
+      </c>
+      <c r="P49" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="63">
+        <f>'Aileron torsion'!L9</f>
+        <v>-1.6368883607165419</v>
+      </c>
+      <c r="R49" s="46">
+        <v>0</v>
+      </c>
+      <c r="S49" s="48">
+        <f>'Aileron torsion'!O9</f>
+        <v>0.35620337912448019</v>
+      </c>
+      <c r="T49" s="46">
+        <v>0</v>
+      </c>
+      <c r="U49" s="48">
+        <f>'Aileron torsion'!P9</f>
+        <v>-1.6368883607165419</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="AH21:AI21"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AD31:AE31"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AH11:AI11"/>
+    <mergeCell ref="J31:U31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="N32:Q32"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AF11:AG11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AH31:AI31"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AD21:AE21"/>
+    <mergeCell ref="AF21:AG21"/>
+    <mergeCell ref="J41:U41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="N42:Q42"/>
+    <mergeCell ref="R42:U42"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="R12:U12"/>
+    <mergeCell ref="J21:U21"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="J1:U1"/>
+    <mergeCell ref="J11:U11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
@@ -17459,11 +19971,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="105" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="107"/>
       <c r="E1" s="132" t="s">
         <v>115</v>
       </c>
@@ -18100,2512 +20612,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI49"/>
-  <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="9" max="9" width="18" style="29" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="29" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10" style="29" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.75" style="29"/>
-    <col min="24" max="35" width="7.5" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="108" t="s">
-        <v>116</v>
-      </c>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="110"/>
-      <c r="I1" t="s">
-        <v>159</v>
-      </c>
-      <c r="J1" s="143" t="s">
-        <v>161</v>
-      </c>
-      <c r="K1" s="144"/>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="144"/>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="144"/>
-      <c r="S1" s="144"/>
-      <c r="T1" s="144"/>
-      <c r="U1" s="145"/>
-    </row>
-    <row r="2" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="112"/>
-      <c r="G2" s="113"/>
-      <c r="I2" t="s">
-        <v>160</v>
-      </c>
-      <c r="J2" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="O2" s="147"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="148"/>
-      <c r="R2" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="148"/>
-    </row>
-    <row r="3" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D3" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="M3" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="O3" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q3" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="U3" s="48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" s="105" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="26">
-        <f>'Aileron shear'!O43</f>
-        <v>-12.895326584644117</v>
-      </c>
-      <c r="D4" s="50">
-        <f>'Aileron shear'!P43</f>
-        <v>83.925987367942099</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="26">
-        <f>'Aileron shear'!R43</f>
-        <v>-12.895326584644117</v>
-      </c>
-      <c r="G4" s="50">
-        <f>'Aileron shear'!S43</f>
-        <v>83.925987367942099</v>
-      </c>
-      <c r="I4" s="55">
-        <f>'Aileron torsion'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="76">
-        <f t="shared" ref="J4:U4" si="0">J14+J24+J34+J44</f>
-        <v>0</v>
-      </c>
-      <c r="K4" s="77">
-        <f t="shared" si="0"/>
-        <v>8.5082534296760759</v>
-      </c>
-      <c r="L4" s="75">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="78">
-        <f t="shared" si="0"/>
-        <v>8.4907445185062898</v>
-      </c>
-      <c r="N4" s="52">
-        <f t="shared" si="0"/>
-        <v>-3.7284010730007155</v>
-      </c>
-      <c r="O4" s="54">
-        <f t="shared" si="0"/>
-        <v>7.6471675269973263</v>
-      </c>
-      <c r="P4" s="82">
-        <f t="shared" si="0"/>
-        <v>-3.7284010730007155</v>
-      </c>
-      <c r="Q4" s="83">
-        <f t="shared" si="0"/>
-        <v>7.6314306218807415</v>
-      </c>
-      <c r="R4" s="52">
-        <f t="shared" si="0"/>
-        <v>3.7284010730007155</v>
-      </c>
-      <c r="S4" s="54">
-        <f t="shared" si="0"/>
-        <v>7.6471675269973263</v>
-      </c>
-      <c r="T4" s="82">
-        <f t="shared" si="0"/>
-        <v>3.7284010730007155</v>
-      </c>
-      <c r="U4" s="54">
-        <f t="shared" si="0"/>
-        <v>7.6314306218807415</v>
-      </c>
-      <c r="X4" s="27" t="str">
-        <f>'Aileron shear'!A2</f>
-        <v>EI_yy</v>
-      </c>
-      <c r="Y4" s="27">
-        <f>'Aileron shear'!B2</f>
-        <v>5078606421.232461</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
-      <c r="B5" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="27">
-        <f>'Aileron shear'!O44</f>
-        <v>-454.93529563559315</v>
-      </c>
-      <c r="D5" s="45">
-        <f>'Aileron shear'!P44</f>
-        <v>69.779238672955344</v>
-      </c>
-      <c r="E5" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="27">
-        <f>'Aileron shear'!R44</f>
-        <v>-377.47185813186996</v>
-      </c>
-      <c r="G5" s="45">
-        <f>'Aileron shear'!S44</f>
-        <v>-131.89912008492107</v>
-      </c>
-      <c r="I5" s="72">
-        <f>'Aileron torsion'!E$5</f>
-        <v>149</v>
-      </c>
-      <c r="J5" s="44">
-        <f t="shared" ref="J5:U5" si="1">J15+J25+J35+J45</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="45">
-        <f t="shared" si="1"/>
-        <v>6.813526778428538</v>
-      </c>
-      <c r="L5" s="43">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="62">
-        <f t="shared" si="1"/>
-        <v>6.7937931280307096</v>
-      </c>
-      <c r="N5" s="44">
-        <f t="shared" si="1"/>
-        <v>-2.9853075096336172</v>
-      </c>
-      <c r="O5" s="45">
-        <f t="shared" si="1"/>
-        <v>6.1242739939159803</v>
-      </c>
-      <c r="P5" s="43">
-        <f t="shared" si="1"/>
-        <v>-2.9853075096336172</v>
-      </c>
-      <c r="Q5" s="62">
-        <f t="shared" si="1"/>
-        <v>6.1047655003734622</v>
-      </c>
-      <c r="R5" s="44">
-        <f t="shared" si="1"/>
-        <v>2.9853075096336172</v>
-      </c>
-      <c r="S5" s="45">
-        <f t="shared" si="1"/>
-        <v>6.1242739939159803</v>
-      </c>
-      <c r="T5" s="43">
-        <f t="shared" si="1"/>
-        <v>2.9853075096336172</v>
-      </c>
-      <c r="U5" s="45">
-        <f t="shared" si="1"/>
-        <v>6.1047655003734622</v>
-      </c>
-      <c r="X5" s="27" t="str">
-        <f>'Aileron shear'!A3</f>
-        <v>EI_zz</v>
-      </c>
-      <c r="Y5" s="27">
-        <f>'Aileron shear'!B3</f>
-        <v>416471095.73144674</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107"/>
-      <c r="B6" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="47">
-        <f>'Aileron shear'!O45</f>
-        <v>431.75481011687015</v>
-      </c>
-      <c r="D6" s="48">
-        <f>'Aileron shear'!P45</f>
-        <v>81.08511687921559</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="47">
-        <f>'Aileron shear'!R45</f>
-        <v>-442.75615854342055</v>
-      </c>
-      <c r="G6" s="48">
-        <f>'Aileron shear'!S45</f>
-        <v>256.38552908591925</v>
-      </c>
-      <c r="I6" s="72">
-        <f>'Aileron torsion'!E$6</f>
-        <v>418</v>
-      </c>
-      <c r="J6" s="44">
-        <f t="shared" ref="J6:U6" si="2">J16+J26+J36+J46</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="45">
-        <f t="shared" si="2"/>
-        <v>1.4693076277561357</v>
-      </c>
-      <c r="L6" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="62">
-        <f t="shared" si="2"/>
-        <v>1.4693076277561357</v>
-      </c>
-      <c r="N6" s="44">
-        <f t="shared" si="2"/>
-        <v>-0.64410206976539541</v>
-      </c>
-      <c r="O6" s="45">
-        <f t="shared" si="2"/>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="P6" s="43">
-        <f t="shared" si="2"/>
-        <v>-0.64410206976539541</v>
-      </c>
-      <c r="Q6" s="62">
-        <f t="shared" si="2"/>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="R6" s="44">
-        <f t="shared" si="2"/>
-        <v>0.64410206976539541</v>
-      </c>
-      <c r="S6" s="45">
-        <f t="shared" si="2"/>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="T6" s="43">
-        <f t="shared" si="2"/>
-        <v>0.64410206976539541</v>
-      </c>
-      <c r="U6" s="45">
-        <f t="shared" si="2"/>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="X6" s="27" t="str">
-        <f>'Aileron shear'!A4</f>
-        <v>L01</v>
-      </c>
-      <c r="Y6" s="27">
-        <f>'Aileron shear'!B4</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="26">
-        <f>'Aileron shear'!O46</f>
-        <v>5.6625487741662281</v>
-      </c>
-      <c r="D7" s="50">
-        <f>'Aileron shear'!P46</f>
-        <v>-115.13451789379474</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F7" s="26">
-        <f>'Aileron shear'!R46</f>
-        <v>5.6625487741662281</v>
-      </c>
-      <c r="G7" s="50">
-        <f>'Aileron shear'!S46</f>
-        <v>-115.13451789379474</v>
-      </c>
-      <c r="I7" s="72">
-        <f>'Aileron torsion'!E$7</f>
-        <v>690</v>
-      </c>
-      <c r="J7" s="44">
-        <f t="shared" ref="J7:U7" si="3">J17+J27+J37+J47</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="45">
-        <f t="shared" si="3"/>
-        <v>0.25648000431932794</v>
-      </c>
-      <c r="L7" s="43">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="M7" s="62">
-        <f t="shared" si="3"/>
-        <v>-1.7202300528100192</v>
-      </c>
-      <c r="N7" s="44">
-        <f t="shared" si="3"/>
-        <v>4.2432423039329661E-2</v>
-      </c>
-      <c r="O7" s="45">
-        <f t="shared" si="3"/>
-        <v>0.23083939204146284</v>
-      </c>
-      <c r="P7" s="43">
-        <f t="shared" si="3"/>
-        <v>4.2432423039329661E-2</v>
-      </c>
-      <c r="Q7" s="62">
-        <f t="shared" si="3"/>
-        <v>-1.5475878446192819</v>
-      </c>
-      <c r="R7" s="44">
-        <f t="shared" si="3"/>
-        <v>-4.2432423039329661E-2</v>
-      </c>
-      <c r="S7" s="45">
-        <f t="shared" si="3"/>
-        <v>0.23083939204146284</v>
-      </c>
-      <c r="T7" s="43">
-        <f t="shared" si="3"/>
-        <v>-4.2432423039329661E-2</v>
-      </c>
-      <c r="U7" s="45">
-        <f t="shared" si="3"/>
-        <v>-1.5475878446192819</v>
-      </c>
-      <c r="X7" s="27" t="str">
-        <f>'Aileron shear'!A5</f>
-        <v>L12</v>
-      </c>
-      <c r="Y7" s="27">
-        <f>'Aileron shear'!B5</f>
-        <v>405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="106"/>
-      <c r="B8" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="27">
-        <f>'Aileron shear'!O47</f>
-        <v>628.93863916869407</v>
-      </c>
-      <c r="D8" s="45">
-        <f>'Aileron shear'!P47</f>
-        <v>-100.9999212065873</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="27">
-        <f>'Aileron shear'!R47</f>
-        <v>85.431371776755029</v>
-      </c>
-      <c r="G8" s="45">
-        <f>'Aileron shear'!S47</f>
-        <v>571.1117985859164</v>
-      </c>
-      <c r="I8" s="80">
-        <f>'Aileron torsion'!E$8</f>
-        <v>1541</v>
-      </c>
-      <c r="J8" s="44">
-        <f t="shared" ref="J8:U8" si="4">J18+J28+J38+J48</f>
-        <v>0</v>
-      </c>
-      <c r="K8" s="45">
-        <f t="shared" si="4"/>
-        <v>20.687277816758932</v>
-      </c>
-      <c r="L8" s="43">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M8" s="62">
-        <f t="shared" si="4"/>
-        <v>18.520312922986399</v>
-      </c>
-      <c r="N8" s="44">
-        <f t="shared" si="4"/>
-        <v>-8.8989342798182705</v>
-      </c>
-      <c r="O8" s="45">
-        <f t="shared" si="4"/>
-        <v>18.593918827004224</v>
-      </c>
-      <c r="P8" s="43">
-        <f t="shared" si="4"/>
-        <v>-8.8989342798182705</v>
-      </c>
-      <c r="Q8" s="62">
-        <f t="shared" si="4"/>
-        <v>16.644491675888965</v>
-      </c>
-      <c r="R8" s="44">
-        <f t="shared" si="4"/>
-        <v>8.8989342798182705</v>
-      </c>
-      <c r="S8" s="45">
-        <f t="shared" si="4"/>
-        <v>18.593918827004224</v>
-      </c>
-      <c r="T8" s="43">
-        <f t="shared" si="4"/>
-        <v>8.8989342798182705</v>
-      </c>
-      <c r="U8" s="45">
-        <f t="shared" si="4"/>
-        <v>16.644491675888965</v>
-      </c>
-      <c r="X8" s="27" t="str">
-        <f>'Aileron shear'!A6</f>
-        <v>L23</v>
-      </c>
-      <c r="Y8" s="27">
-        <f>'Aileron shear'!B6</f>
-        <v>986.99999999999989</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="107"/>
-      <c r="B9" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C9" s="47">
-        <f>'Aileron shear'!O48</f>
-        <v>-618.75970891849545</v>
-      </c>
-      <c r="D9" s="48">
-        <f>'Aileron shear'!P48</f>
-        <v>-105.96451720634796</v>
-      </c>
-      <c r="E9" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F9" s="47">
-        <f>'Aileron shear'!R48</f>
-        <v>286.39441933571612</v>
-      </c>
-      <c r="G9" s="48">
-        <f>'Aileron shear'!S48</f>
-        <v>-624.13523516997066</v>
-      </c>
-      <c r="I9" s="81">
-        <f>'Aileron torsion'!E$9</f>
-        <v>1691</v>
-      </c>
-      <c r="J9" s="46">
-        <f t="shared" ref="J9:U9" si="5">J19+J29+J39+J49</f>
-        <v>0</v>
-      </c>
-      <c r="K9" s="48">
-        <f t="shared" si="5"/>
-        <v>25.769009610255154</v>
-      </c>
-      <c r="L9" s="49">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M9" s="63">
-        <f t="shared" si="5"/>
-        <v>23.553463410336288</v>
-      </c>
-      <c r="N9" s="46">
-        <f t="shared" si="5"/>
-        <v>-11.12281275891144</v>
-      </c>
-      <c r="O9" s="48">
-        <f t="shared" si="5"/>
-        <v>23.161349107887819</v>
-      </c>
-      <c r="P9" s="49">
-        <f t="shared" si="5"/>
-        <v>-11.12281275891144</v>
-      </c>
-      <c r="Q9" s="63">
-        <f t="shared" si="5"/>
-        <v>21.168257368046795</v>
-      </c>
-      <c r="R9" s="46">
-        <f t="shared" si="5"/>
-        <v>11.12281275891144</v>
-      </c>
-      <c r="S9" s="48">
-        <f t="shared" si="5"/>
-        <v>23.161349107887819</v>
-      </c>
-      <c r="T9" s="49">
-        <f t="shared" si="5"/>
-        <v>11.12281275891144</v>
-      </c>
-      <c r="U9" s="48">
-        <f t="shared" si="5"/>
-        <v>21.168257368046795</v>
-      </c>
-      <c r="X9" s="27" t="str">
-        <f>'Aileron shear'!A7</f>
-        <v>L34</v>
-      </c>
-      <c r="Y9" s="27">
-        <f>'Aileron shear'!B7</f>
-        <v>150</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="26">
-        <f>'Aileron shear'!O49</f>
-        <v>5.405031625506787</v>
-      </c>
-      <c r="D10" s="50">
-        <f>'Aileron shear'!P49</f>
-        <v>35.79114052585264</v>
-      </c>
-      <c r="E10" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="26">
-        <f>'Aileron shear'!R49</f>
-        <v>5.405031625506787</v>
-      </c>
-      <c r="G10" s="50">
-        <f>'Aileron shear'!S49</f>
-        <v>35.79114052585264</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="106"/>
-      <c r="B11" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="27">
-        <f>'Aileron shear'!O50</f>
-        <v>-177.65499492328593</v>
-      </c>
-      <c r="D11" s="45">
-        <f>'Aileron shear'!P50</f>
-        <v>34.538273926997839</v>
-      </c>
-      <c r="E11" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F11" s="27">
-        <f>'Aileron shear'!R50</f>
-        <v>-177.65499492328593</v>
-      </c>
-      <c r="G11" s="45">
-        <f>'Aileron shear'!S50</f>
-        <v>34.538273926997839</v>
-      </c>
-      <c r="I11" t="s">
-        <v>159</v>
-      </c>
-      <c r="J11" s="143" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="144"/>
-      <c r="N11" s="144"/>
-      <c r="O11" s="144"/>
-      <c r="P11" s="144"/>
-      <c r="Q11" s="144"/>
-      <c r="R11" s="144"/>
-      <c r="S11" s="144"/>
-      <c r="T11" s="144"/>
-      <c r="U11" s="145"/>
-      <c r="X11" s="142" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="142" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA11" s="142"/>
-      <c r="AB11" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC11" s="142"/>
-      <c r="AD11" s="142" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE11" s="142"/>
-      <c r="AF11" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG11" s="142"/>
-      <c r="AH11" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI11" s="142"/>
-    </row>
-    <row r="12" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="107"/>
-      <c r="B12" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="47">
-        <f>'Aileron shear'!O51</f>
-        <v>187.37101541341434</v>
-      </c>
-      <c r="D12" s="48">
-        <f>'Aileron shear'!P51</f>
-        <v>29.799454102788552</v>
-      </c>
-      <c r="E12" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F12" s="47">
-        <f>'Aileron shear'!R51</f>
-        <v>-177.65499492328593</v>
-      </c>
-      <c r="G12" s="48">
-        <f>'Aileron shear'!S51</f>
-        <v>34.538273926997839</v>
-      </c>
-      <c r="I12" t="s">
-        <v>160</v>
-      </c>
-      <c r="J12" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="K12" s="147"/>
-      <c r="L12" s="147"/>
-      <c r="M12" s="148"/>
-      <c r="N12" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="148"/>
-      <c r="X12" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y12" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z12" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA12" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB12" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC12" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD12" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE12" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF12" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG12" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH12" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI12" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="105" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="26">
-        <f>F13</f>
-        <v>39.727746184971103</v>
-      </c>
-      <c r="D13" s="50">
-        <f>G13</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="F13" s="26">
-        <f>'Aileron torsion'!B14</f>
-        <v>39.727746184971103</v>
-      </c>
-      <c r="G13" s="50">
-        <v>0</v>
-      </c>
-      <c r="I13" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="K13" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L13" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="M13" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N13" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="O13" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q13" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="R13" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="S13" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="T13" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="U13" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="X13" s="10">
-        <f>'Aileron shear'!O4</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="10">
-        <f>'Aileron shear'!O10</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="10">
-        <f>'Aileron shear'!P4</f>
-        <v>82.846966380527974</v>
-      </c>
-      <c r="AA13" s="10">
-        <f>'Aileron shear'!P10</f>
-        <v>33.994955809639144</v>
-      </c>
-      <c r="AB13" s="10">
-        <f>'Aileron shear'!O5</f>
-        <v>-442.87204120856944</v>
-      </c>
-      <c r="AC13" s="10">
-        <f>'Aileron shear'!O11</f>
-        <v>-181.72560961445862</v>
-      </c>
-      <c r="AD13" s="10">
-        <f>'Aileron shear'!P5</f>
-        <v>74.46236013676581</v>
-      </c>
-      <c r="AE13" s="10">
-        <f>'Aileron shear'!P11</f>
-        <v>30.554463885906948</v>
-      </c>
-      <c r="AF13" s="10">
-        <f>'Aileron shear'!O6</f>
-        <v>442.87204120856944</v>
-      </c>
-      <c r="AG13" s="10">
-        <f>'Aileron shear'!O12</f>
-        <v>181.72560961445862</v>
-      </c>
-      <c r="AH13" s="10">
-        <f>'Aileron shear'!P6</f>
-        <v>74.46236013676581</v>
-      </c>
-      <c r="AI13" s="10">
-        <f>'Aileron shear'!P12</f>
-        <v>30.554463885906948</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="27">
-        <f>F14*COS(PI()/180*Input!$C$17)</f>
-        <v>35.707061743936471</v>
-      </c>
-      <c r="D14" s="45">
-        <f>F14*SIN(PI()/180*Input!$C$17)</f>
-        <v>17.415497654451176</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F14" s="27">
-        <f>'Aileron torsion'!B19</f>
-        <v>39.727746184971103</v>
-      </c>
-      <c r="G14" s="45">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>SQRT(D14^2+C14^2)</f>
-        <v>39.727746184971103</v>
-      </c>
-      <c r="I14" s="55">
-        <f>'Aileron torsion'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="76">
-        <v>0</v>
-      </c>
-      <c r="K14" s="77">
-        <f>-Z13*$Y$6*$Y$7^2/(6*$Y$5)+K15*$Y$6/$Y$7+K15</f>
-        <v>8.505124254436021</v>
-      </c>
-      <c r="L14" s="76">
-        <f>J14</f>
-        <v>0</v>
-      </c>
-      <c r="M14" s="77">
-        <f>K14</f>
-        <v>8.505124254436021</v>
-      </c>
-      <c r="N14" s="76">
-        <f>-AB13*$Y$6*$Y$7^2/(6*$Y$4)+N15*$Y$6/$Y$7+N15</f>
-        <v>-3.7284010730007155</v>
-      </c>
-      <c r="O14" s="77">
-        <f>-AD13*$Y$6*$Y$7^2/(6*$Y$5)+O15*$Y$6/$Y$7+O15</f>
-        <v>7.6443550429217382</v>
-      </c>
-      <c r="P14" s="76">
-        <f>N14</f>
-        <v>-3.7284010730007155</v>
-      </c>
-      <c r="Q14" s="77">
-        <f>O14</f>
-        <v>7.6443550429217382</v>
-      </c>
-      <c r="R14" s="76">
-        <f>-AF13*$Y$6*$Y$7^2/(6*$Y$4)+R15*$Y$6/$Y$7+R15</f>
-        <v>3.7284010730007155</v>
-      </c>
-      <c r="S14" s="77">
-        <f>-AH13*$Y$6*$Y$7^2/(6*$Y$5)+S15*$Y$6/$Y$7+S15</f>
-        <v>7.6443550429217382</v>
-      </c>
-      <c r="T14" s="75">
-        <f>R14</f>
-        <v>3.7284010730007155</v>
-      </c>
-      <c r="U14" s="77">
-        <f>S14</f>
-        <v>7.6443550429217382</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="107"/>
-      <c r="B15" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="47">
-        <f>F15*COS(PI()/180*Input!$C$17)</f>
-        <v>35.707061743936471</v>
-      </c>
-      <c r="D15" s="48">
-        <f>F15*SIN(-PI()/180*Input!$C$17)</f>
-        <v>-17.415497654451176</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="47">
-        <f>'Aileron torsion'!B24</f>
-        <v>39.727746184971103</v>
-      </c>
-      <c r="G15" s="48">
-        <v>0</v>
-      </c>
-      <c r="I15" s="72">
-        <f>'Aileron torsion'!E$5</f>
-        <v>149</v>
-      </c>
-      <c r="J15" s="44">
-        <v>0</v>
-      </c>
-      <c r="K15" s="45">
-        <f>'Aileron shear'!$H$4</f>
-        <v>6.8100000000000005</v>
-      </c>
-      <c r="L15" s="44">
-        <f>J15</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="45">
-        <f>K15</f>
-        <v>6.8100000000000005</v>
-      </c>
-      <c r="N15" s="44">
-        <f>'Aileron shear'!G5</f>
-        <v>-2.9853075096336172</v>
-      </c>
-      <c r="O15" s="45">
-        <f>'Aileron shear'!H5</f>
-        <v>6.1207874552973278</v>
-      </c>
-      <c r="P15" s="44">
-        <f t="shared" ref="P15" si="6">N15</f>
-        <v>-2.9853075096336172</v>
-      </c>
-      <c r="Q15" s="45">
-        <f t="shared" ref="Q15" si="7">O15</f>
-        <v>6.1207874552973278</v>
-      </c>
-      <c r="R15" s="43">
-        <f>'Aileron shear'!G6</f>
-        <v>2.9853075096336172</v>
-      </c>
-      <c r="S15" s="45">
-        <f>'Aileron shear'!H6</f>
-        <v>6.1207874552973278</v>
-      </c>
-      <c r="T15" s="43">
-        <f t="shared" ref="T15:T18" si="8">R15</f>
-        <v>2.9853075096336172</v>
-      </c>
-      <c r="U15" s="45">
-        <f t="shared" ref="U15:U18" si="9">S15</f>
-        <v>6.1207874552973278</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I16" s="72">
-        <f>'Aileron torsion'!E$6</f>
-        <v>418</v>
-      </c>
-      <c r="J16" s="44">
-        <v>0</v>
-      </c>
-      <c r="K16" s="45">
-        <f>K15+1/$Y$5*(1/6*Z13*($I$16-$I$15)^3-(1/6*Z13*$Y$7^2+$Y$5*K15/$Y$7)*($I$16-$I$15))</f>
-        <v>1.4693076277561357</v>
-      </c>
-      <c r="L16" s="44">
-        <f t="shared" ref="L16:L18" si="10">J16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="45">
-        <f t="shared" ref="M16:M18" si="11">K16</f>
-        <v>1.4693076277561357</v>
-      </c>
-      <c r="N16" s="44">
-        <f>N15+1/$Y$4*(1/6*AB13*($I$16-$I$15)^3-(1/6*AB13*$Y$7^2+$Y$4*N15/$Y$7)*($I$16-$I$15))</f>
-        <v>-0.64410206976539541</v>
-      </c>
-      <c r="O16" s="45">
-        <f>O15+1/$Y$5*(1/6*AD13*($I$16-$I$15)^3-(1/6*AD13*$Y$7^2+$Y$5*O15/$Y$7)*($I$16-$I$15))</f>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="P16" s="44">
-        <f t="shared" ref="P16:P17" si="12">N16</f>
-        <v>-0.64410206976539541</v>
-      </c>
-      <c r="Q16" s="45">
-        <f t="shared" ref="Q16:Q17" si="13">O16</f>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="R16" s="44">
-        <f>R15+1/$Y$4*(1/6*AF13*($I$16-$I$15)^3-(1/6*AF13*$Y$7^2+$Y$4*R15/$Y$7)*($I$16-$I$15))</f>
-        <v>0.64410206976539541</v>
-      </c>
-      <c r="S16" s="45">
-        <f>S15+1/$Y$5*(1/6*AH13*($I$16-$I$15)^3-(1/6*AH13*$Y$7^2+$Y$5*S15/$Y$7)*($I$16-$I$15))</f>
-        <v>1.3206049480091657</v>
-      </c>
-      <c r="T16" s="43">
-        <f t="shared" si="8"/>
-        <v>0.64410206976539541</v>
-      </c>
-      <c r="U16" s="45">
-        <f t="shared" si="9"/>
-        <v>1.3206049480091657</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="110"/>
-      <c r="I17" s="72">
-        <f>'Aileron torsion'!E$7</f>
-        <v>690</v>
-      </c>
-      <c r="J17" s="44">
-        <v>0</v>
-      </c>
-      <c r="K17" s="45">
-        <f>-1/$Y$5*(1/6*AA13*($I$17-$Y$6-$Y$7)^3-1/2*AA13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AA13*$Y$8^2-$Y$5*K18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
-        <v>-9.6795656717218598E-2</v>
-      </c>
-      <c r="L17" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="45">
-        <f t="shared" si="11"/>
-        <v>-9.6795656717218598E-2</v>
-      </c>
-      <c r="N17" s="43">
-        <f>-1/$Y$4*(1/6*AC13*($I$17-$Y$6-$Y$7)^3-1/2*AC13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AC13*$Y$8^2-$Y$4*N18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
-        <v>4.2432423039329661E-2</v>
-      </c>
-      <c r="O17" s="45">
-        <f>-1/$Y$5*(1/6*AE13*($I$17-$Y$6-$Y$7)^3-1/2*AE13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AE13*$Y$8^2-$Y$5*O18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
-        <v>-8.6999359965054562E-2</v>
-      </c>
-      <c r="P17" s="44">
-        <f t="shared" si="12"/>
-        <v>4.2432423039329661E-2</v>
-      </c>
-      <c r="Q17" s="45">
-        <f t="shared" si="13"/>
-        <v>-8.6999359965054562E-2</v>
-      </c>
-      <c r="R17" s="43">
-        <f>-1/$Y$4*(1/6*AG13*($I$17-$Y$6-$Y$7)^3-1/2*AG13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AG13*$Y$8^2-$Y$4*R18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
-        <v>-4.2432423039329661E-2</v>
-      </c>
-      <c r="S17" s="45">
-        <f>-1/$Y$5*(1/6*AI13*($I$17-$Y$6-$Y$7)^3-1/2*AI13*$Y$8*($I$17-$Y$6-$Y$7)^2+(1/3*AI13*$Y$8^2-$Y$5*S18/$Y$8)*($I$17-$Y$6-$Y$7))</f>
-        <v>-8.6999359965054562E-2</v>
-      </c>
-      <c r="T17" s="43">
-        <f t="shared" si="8"/>
-        <v>-4.2432423039329661E-2</v>
-      </c>
-      <c r="U17" s="45">
-        <f t="shared" si="9"/>
-        <v>-8.6999359965054562E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="111" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="112"/>
-      <c r="D18" s="113"/>
-      <c r="E18" s="111" t="s">
-        <v>108</v>
-      </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="I18" s="80">
-        <f>'Aileron torsion'!E$8</f>
-        <v>1541</v>
-      </c>
-      <c r="J18" s="44">
-        <v>0</v>
-      </c>
-      <c r="K18" s="45">
-        <f>'Aileron shear'!$H$7</f>
-        <v>20.299999999999997</v>
-      </c>
-      <c r="L18" s="44">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="45">
-        <f t="shared" si="11"/>
-        <v>20.299999999999997</v>
-      </c>
-      <c r="N18" s="44">
-        <f>'Aileron shear'!G8</f>
-        <v>-8.8989342798182705</v>
-      </c>
-      <c r="O18" s="45">
-        <f>'Aileron shear'!H8</f>
-        <v>18.245519139873089</v>
-      </c>
-      <c r="P18" s="44">
-        <f t="shared" ref="P18" si="14">N18</f>
-        <v>-8.8989342798182705</v>
-      </c>
-      <c r="Q18" s="45">
-        <f t="shared" ref="Q18" si="15">O18</f>
-        <v>18.245519139873089</v>
-      </c>
-      <c r="R18" s="43">
-        <f>'Aileron shear'!G9</f>
-        <v>8.8989342798182705</v>
-      </c>
-      <c r="S18" s="45">
-        <f>'Aileron shear'!H9</f>
-        <v>18.245519139873089</v>
-      </c>
-      <c r="T18" s="43">
-        <f t="shared" si="8"/>
-        <v>8.8989342798182705</v>
-      </c>
-      <c r="U18" s="45">
-        <f t="shared" si="9"/>
-        <v>18.245519139873089</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="D19" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="E19" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="F19" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G19" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" s="81">
-        <f>'Aileron torsion'!E$9</f>
-        <v>1691</v>
-      </c>
-      <c r="J19" s="46">
-        <v>0</v>
-      </c>
-      <c r="K19" s="48">
-        <f>K18+$Y$9/$Y$5*(1/6*AA13*$Y$8^2+$Y$5*K18/$Y$8)</f>
-        <v>25.373049390641555</v>
-      </c>
-      <c r="L19" s="46">
-        <f>J19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="48">
-        <f>K19</f>
-        <v>25.373049390641555</v>
-      </c>
-      <c r="N19" s="46">
-        <f>N18+$Y$9/$Y$4*(1/6*AC13*$Y$8^2+$Y$4*N18/$Y$8)</f>
-        <v>-11.12281275891144</v>
-      </c>
-      <c r="O19" s="48">
-        <f>O18+$Y$9/$Y$5*(1/6*AE13*$Y$8^2+$Y$5*O18/$Y$8)</f>
-        <v>22.805145728763339</v>
-      </c>
-      <c r="P19" s="46">
-        <f>N19</f>
-        <v>-11.12281275891144</v>
-      </c>
-      <c r="Q19" s="48">
-        <f>O19</f>
-        <v>22.805145728763339</v>
-      </c>
-      <c r="R19" s="46">
-        <f>R18+$Y$9/$Y$4*(1/6*AG13*$Y$8^2+$Y$4*R18/$Y$8)</f>
-        <v>11.12281275891144</v>
-      </c>
-      <c r="S19" s="48">
-        <f>S18+$Y$9/$Y$5*(1/6*AI13*$Y$8^2+$Y$5*S18/$Y$8)</f>
-        <v>22.805145728763339</v>
-      </c>
-      <c r="T19" s="49">
-        <f>R19</f>
-        <v>11.12281275891144</v>
-      </c>
-      <c r="U19" s="48">
-        <f>S19</f>
-        <v>22.805145728763339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C20" s="53">
-        <f>F20</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="54">
-        <f>G20</f>
-        <v>-2.71</v>
-      </c>
-      <c r="E20" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="121">
-        <v>0</v>
-      </c>
-      <c r="G20" s="124">
-        <f>-Input!C19</f>
-        <v>-2.71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="106"/>
-      <c r="B21" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="27">
-        <f>-G20*SIN(PI()/180*Input!$C$17)</f>
-        <v>1.1879858077983998</v>
-      </c>
-      <c r="D21" s="45">
-        <f>G20*COS(PI()/180*Input!$C$17)</f>
-        <v>-2.4357318654707427</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="122"/>
-      <c r="G21" s="125"/>
-      <c r="I21" t="s">
-        <v>159</v>
-      </c>
-      <c r="J21" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="K21" s="144"/>
-      <c r="L21" s="144"/>
-      <c r="M21" s="144"/>
-      <c r="N21" s="144"/>
-      <c r="O21" s="144"/>
-      <c r="P21" s="144"/>
-      <c r="Q21" s="144"/>
-      <c r="R21" s="144"/>
-      <c r="S21" s="144"/>
-      <c r="T21" s="144"/>
-      <c r="U21" s="145"/>
-      <c r="X21" s="142" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y21" s="142"/>
-      <c r="Z21" s="142" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA21" s="142"/>
-      <c r="AB21" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC21" s="142"/>
-      <c r="AD21" s="142" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE21" s="142"/>
-      <c r="AF21" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG21" s="142"/>
-      <c r="AH21" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI21" s="142"/>
-    </row>
-    <row r="22" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="107"/>
-      <c r="B22" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="47">
-        <f>G20*SIN(PI()/180*Input!$C$17)</f>
-        <v>-1.1879858077983998</v>
-      </c>
-      <c r="D22" s="48">
-        <f>G20*COS(-PI()/180*Input!$C$17)</f>
-        <v>-2.4357318654707427</v>
-      </c>
-      <c r="E22" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="123"/>
-      <c r="G22" s="126"/>
-      <c r="I22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J22" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="147"/>
-      <c r="L22" s="147"/>
-      <c r="M22" s="148"/>
-      <c r="N22" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="O22" s="147"/>
-      <c r="P22" s="147"/>
-      <c r="Q22" s="148"/>
-      <c r="R22" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="148"/>
-      <c r="X22" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y22" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z22" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA22" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB22" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD22" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF22" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG22" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH22" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI22" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="105" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="53">
-        <f>-F23</f>
-        <v>-37.9</v>
-      </c>
-      <c r="D23" s="54">
-        <f>G23</f>
-        <v>0</v>
-      </c>
-      <c r="E23" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="F23" s="121">
-        <f>Input!$C$18</f>
-        <v>37.9</v>
-      </c>
-      <c r="G23" s="124">
-        <v>0</v>
-      </c>
-      <c r="I23" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="K23" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L23" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="M23" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N23" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="O23" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="P23" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q23" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="R23" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="S23" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="T23" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="U23" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="X23" s="10">
-        <f>'Aileron shear'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="10">
-        <f>'Aileron shear'!O23</f>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="10">
-        <f>'Aileron shear'!P17</f>
-        <v>1.0790209874141234</v>
-      </c>
-      <c r="AA23" s="10">
-        <f>'Aileron shear'!P23</f>
-        <v>1.7961847162134956</v>
-      </c>
-      <c r="AB23" s="10">
-        <f>'Aileron shear'!O18</f>
-        <v>-0.47301166766221192</v>
-      </c>
-      <c r="AC23" s="10">
-        <f>'Aileron shear'!O24</f>
-        <v>-0.78739555389152349</v>
-      </c>
-      <c r="AD23" s="10">
-        <f>'Aileron shear'!P18</f>
-        <v>0.96981763931966269</v>
-      </c>
-      <c r="AE23" s="10">
-        <f>'Aileron shear'!P24</f>
-        <v>1.6144001289862491</v>
-      </c>
-      <c r="AF23" s="10">
-        <f>'Aileron shear'!O19</f>
-        <v>0.47301166766221192</v>
-      </c>
-      <c r="AG23" s="10">
-        <f>'Aileron shear'!O25</f>
-        <v>0.78739555389152349</v>
-      </c>
-      <c r="AH23" s="10">
-        <f>'Aileron shear'!P19</f>
-        <v>0.96981763931966269</v>
-      </c>
-      <c r="AI23" s="10">
-        <f>'Aileron shear'!P25</f>
-        <v>1.6144001289862491</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A24" s="106"/>
-      <c r="B24" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="27">
-        <f>-F23*COS(PI()/180*Input!$C$17)</f>
-        <v>-34.064294354738429</v>
-      </c>
-      <c r="D24" s="45">
-        <f>-F23*SIN(PI()/180*Input!$C$17)</f>
-        <v>-16.614266463306034</v>
-      </c>
-      <c r="E24" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="F24" s="122"/>
-      <c r="G24" s="125"/>
-      <c r="I24" s="55">
-        <f>'Aileron torsion'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="75"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="75"/>
-      <c r="Q24" s="78"/>
-      <c r="R24" s="76"/>
-      <c r="S24" s="77"/>
-      <c r="T24" s="75"/>
-      <c r="U24" s="77"/>
-    </row>
-    <row r="25" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="107"/>
-      <c r="B25" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="47">
-        <f>-F23*COS(PI()/180*Input!$C$17)</f>
-        <v>-34.064294354738429</v>
-      </c>
-      <c r="D25" s="48">
-        <f>-F23*SIN(-PI()/180*Input!$C$17)</f>
-        <v>16.614266463306034</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="123"/>
-      <c r="G25" s="126"/>
-      <c r="I25" s="72">
-        <f>'Aileron torsion'!E$5</f>
-        <v>149</v>
-      </c>
-      <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="43"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="44"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="45"/>
-    </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I26" s="72">
-        <f>'Aileron torsion'!E$6</f>
-        <v>418</v>
-      </c>
-      <c r="J26" s="44"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="44"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="45"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="72">
-        <f>'Aileron torsion'!E$7</f>
-        <v>690</v>
-      </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="43"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="43"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="45"/>
-    </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="I28" s="80">
-        <f>'Aileron torsion'!E$8</f>
-        <v>1541</v>
-      </c>
-      <c r="J28" s="44"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="43"/>
-      <c r="M28" s="45"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="43"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="45"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="45"/>
-    </row>
-    <row r="29" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I29" s="81">
-        <f>'Aileron torsion'!E$9</f>
-        <v>1691</v>
-      </c>
-      <c r="J29" s="46"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="49"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="46"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="46"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="49"/>
-      <c r="U29" s="48"/>
-    </row>
-    <row r="30" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31" s="143" t="s">
-        <v>165</v>
-      </c>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="144"/>
-      <c r="R31" s="144"/>
-      <c r="S31" s="144"/>
-      <c r="T31" s="144"/>
-      <c r="U31" s="145"/>
-      <c r="X31" s="142" t="s">
-        <v>176</v>
-      </c>
-      <c r="Y31" s="142"/>
-      <c r="Z31" s="142" t="s">
-        <v>177</v>
-      </c>
-      <c r="AA31" s="142"/>
-      <c r="AB31" s="142" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC31" s="142"/>
-      <c r="AD31" s="142" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE31" s="142"/>
-      <c r="AF31" s="142" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG31" s="142"/>
-      <c r="AH31" s="142" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI31" s="142"/>
-    </row>
-    <row r="32" spans="1:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J32" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="148"/>
-      <c r="N32" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
-      <c r="Q32" s="148"/>
-      <c r="R32" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="148"/>
-      <c r="X32" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y32" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z32" s="28" t="s">
-        <v>174</v>
-      </c>
-      <c r="AA32" s="28" t="s">
-        <v>175</v>
-      </c>
-      <c r="AB32" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AC32" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AD32" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE32" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AF32" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG32" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH32" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="AI32" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I33" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J33" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="K33" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L33" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="M33" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N33" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="O33" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="P33" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q33" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="R33" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="S33" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="T33" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="U33" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="X33" s="10">
-        <f>'Aileron shear'!O30</f>
-        <v>-12.895326584644117</v>
-      </c>
-      <c r="Y33" s="10">
-        <f>'Aileron shear'!O36</f>
-        <v>5.405031625506787</v>
-      </c>
-      <c r="Z33" s="10">
-        <f>'Aileron shear'!P30</f>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="10">
-        <f>'Aileron shear'!P36</f>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="10">
-        <f>'Aileron shear'!O31</f>
-        <v>-11.590242759361505</v>
-      </c>
-      <c r="AC33" s="10">
-        <f>'Aileron shear'!O37</f>
-        <v>4.8580102450642118</v>
-      </c>
-      <c r="AD33" s="10">
-        <f>'Aileron shear'!P31</f>
-        <v>-5.6529391031301177</v>
-      </c>
-      <c r="AE33" s="10">
-        <f>'Aileron shear'!P37</f>
-        <v>2.3694099121046417</v>
-      </c>
-      <c r="AF33" s="10">
-        <f>'Aileron shear'!O32</f>
-        <v>-11.590242759361505</v>
-      </c>
-      <c r="AG33" s="10">
-        <f>'Aileron shear'!O38</f>
-        <v>4.8580102450642118</v>
-      </c>
-      <c r="AH33" s="10">
-        <f>'Aileron shear'!P32</f>
-        <v>5.6529391031301177</v>
-      </c>
-      <c r="AI33" s="10">
-        <f>'Aileron shear'!P38</f>
-        <v>-2.3694099121046417</v>
-      </c>
-    </row>
-    <row r="34" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I34" s="55">
-        <f>'Aileron torsion'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="76"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="76"/>
-      <c r="O34" s="77"/>
-      <c r="P34" s="75"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="76"/>
-      <c r="S34" s="77"/>
-      <c r="T34" s="75"/>
-      <c r="U34" s="77"/>
-    </row>
-    <row r="35" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I35" s="72">
-        <f>'Aileron torsion'!E$5</f>
-        <v>149</v>
-      </c>
-      <c r="J35" s="44"/>
-      <c r="K35" s="45"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="45"/>
-      <c r="N35" s="44"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="43"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="45"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="45"/>
-    </row>
-    <row r="36" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I36" s="72">
-        <f>'Aileron torsion'!E$6</f>
-        <v>418</v>
-      </c>
-      <c r="J36" s="44"/>
-      <c r="K36" s="45"/>
-      <c r="L36" s="43"/>
-      <c r="M36" s="45"/>
-      <c r="N36" s="44"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="43"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="44"/>
-      <c r="S36" s="45"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="45"/>
-    </row>
-    <row r="37" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I37" s="72">
-        <f>'Aileron torsion'!E$7</f>
-        <v>690</v>
-      </c>
-      <c r="J37" s="44"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="44"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="45"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="45"/>
-    </row>
-    <row r="38" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I38" s="80">
-        <f>'Aileron torsion'!E$8</f>
-        <v>1541</v>
-      </c>
-      <c r="J38" s="44"/>
-      <c r="K38" s="45"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="45"/>
-      <c r="N38" s="44"/>
-      <c r="O38" s="45"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="45"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="45"/>
-    </row>
-    <row r="39" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I39" s="81">
-        <f>'Aileron torsion'!E$9</f>
-        <v>1691</v>
-      </c>
-      <c r="J39" s="46"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="49"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="48"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="46"/>
-      <c r="S39" s="48"/>
-      <c r="T39" s="49"/>
-      <c r="U39" s="48"/>
-    </row>
-    <row r="40" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I41" t="s">
-        <v>159</v>
-      </c>
-      <c r="J41" s="143" t="s">
-        <v>162</v>
-      </c>
-      <c r="K41" s="144"/>
-      <c r="L41" s="144"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="144"/>
-      <c r="O41" s="144"/>
-      <c r="P41" s="144"/>
-      <c r="Q41" s="144"/>
-      <c r="R41" s="144"/>
-      <c r="S41" s="144"/>
-      <c r="T41" s="144"/>
-      <c r="U41" s="145"/>
-    </row>
-    <row r="42" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I42" t="s">
-        <v>160</v>
-      </c>
-      <c r="J42" s="146" t="s">
-        <v>115</v>
-      </c>
-      <c r="K42" s="147"/>
-      <c r="L42" s="147"/>
-      <c r="M42" s="148"/>
-      <c r="N42" s="146" t="s">
-        <v>153</v>
-      </c>
-      <c r="O42" s="147"/>
-      <c r="P42" s="147"/>
-      <c r="Q42" s="148"/>
-      <c r="R42" s="146" t="s">
-        <v>154</v>
-      </c>
-      <c r="S42" s="147"/>
-      <c r="T42" s="147"/>
-      <c r="U42" s="148"/>
-    </row>
-    <row r="43" spans="9:35" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I43" s="79" t="s">
-        <v>132</v>
-      </c>
-      <c r="J43" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="K43" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="L43" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="M43" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="N43" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="O43" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="P43" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q43" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="R43" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="S43" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="T43" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="U43" s="48" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="44" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I44" s="55">
-        <f>'Aileron torsion'!E$4</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="76">
-        <v>0</v>
-      </c>
-      <c r="K44" s="54">
-        <f>'Aileron torsion'!G4</f>
-        <v>3.1291752400547392E-3</v>
-      </c>
-      <c r="L44" s="76">
-        <v>0</v>
-      </c>
-      <c r="M44" s="83">
-        <f>'Aileron torsion'!H4</f>
-        <v>-1.4379735929731316E-2</v>
-      </c>
-      <c r="N44" s="76">
-        <v>0</v>
-      </c>
-      <c r="O44" s="54">
-        <f>'Aileron torsion'!K4</f>
-        <v>2.8124840755879665E-3</v>
-      </c>
-      <c r="P44" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q44" s="83">
-        <f>'Aileron torsion'!L4</f>
-        <v>-1.2924421040996724E-2</v>
-      </c>
-      <c r="R44" s="76">
-        <v>0</v>
-      </c>
-      <c r="S44" s="54">
-        <f>'Aileron torsion'!O4</f>
-        <v>2.8124840755879665E-3</v>
-      </c>
-      <c r="T44" s="76">
-        <v>0</v>
-      </c>
-      <c r="U44" s="54">
-        <f>'Aileron torsion'!P4</f>
-        <v>-1.2924421040996724E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I45" s="72">
-        <f>'Aileron torsion'!E$5</f>
-        <v>149</v>
-      </c>
-      <c r="J45" s="44">
-        <v>0</v>
-      </c>
-      <c r="K45" s="45">
-        <f>'Aileron torsion'!G5</f>
-        <v>3.526778428537462E-3</v>
-      </c>
-      <c r="L45" s="44">
-        <v>0</v>
-      </c>
-      <c r="M45" s="62">
-        <f>'Aileron torsion'!H5</f>
-        <v>-1.6206871969290649E-2</v>
-      </c>
-      <c r="N45" s="44">
-        <v>0</v>
-      </c>
-      <c r="O45" s="45">
-        <f>'Aileron torsion'!K5</f>
-        <v>3.4865386186525762E-3</v>
-      </c>
-      <c r="P45" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="62">
-        <f>'Aileron torsion'!L5</f>
-        <v>-1.6021954923865885E-2</v>
-      </c>
-      <c r="R45" s="44">
-        <v>0</v>
-      </c>
-      <c r="S45" s="45">
-        <f>'Aileron torsion'!O5</f>
-        <v>3.4865386186525762E-3</v>
-      </c>
-      <c r="T45" s="44">
-        <v>0</v>
-      </c>
-      <c r="U45" s="45">
-        <f>'Aileron torsion'!P5</f>
-        <v>-1.6021954923865885E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I46" s="72">
-        <f>'Aileron torsion'!E$6</f>
-        <v>418</v>
-      </c>
-      <c r="J46" s="44">
-        <v>0</v>
-      </c>
-      <c r="K46" s="45">
-        <f>'Aileron torsion'!G6</f>
-        <v>0</v>
-      </c>
-      <c r="L46" s="44">
-        <v>0</v>
-      </c>
-      <c r="M46" s="62">
-        <f>'Aileron torsion'!H6</f>
-        <v>0</v>
-      </c>
-      <c r="N46" s="44">
-        <v>0</v>
-      </c>
-      <c r="O46" s="45">
-        <f>'Aileron torsion'!K6</f>
-        <v>0</v>
-      </c>
-      <c r="P46" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="62">
-        <f>'Aileron torsion'!L6</f>
-        <v>0</v>
-      </c>
-      <c r="R46" s="44">
-        <v>0</v>
-      </c>
-      <c r="S46" s="45">
-        <f>'Aileron torsion'!O6</f>
-        <v>0</v>
-      </c>
-      <c r="T46" s="44">
-        <v>0</v>
-      </c>
-      <c r="U46" s="45">
-        <f>'Aileron torsion'!P6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I47" s="72">
-        <f>'Aileron torsion'!E$7</f>
-        <v>690</v>
-      </c>
-      <c r="J47" s="44">
-        <v>0</v>
-      </c>
-      <c r="K47" s="45">
-        <f>'Aileron torsion'!G7</f>
-        <v>0.35327566103654656</v>
-      </c>
-      <c r="L47" s="44">
-        <v>0</v>
-      </c>
-      <c r="M47" s="62">
-        <f>'Aileron torsion'!H7</f>
-        <v>-1.6234343960928006</v>
-      </c>
-      <c r="N47" s="44">
-        <v>0</v>
-      </c>
-      <c r="O47" s="45">
-        <f>'Aileron torsion'!K7</f>
-        <v>0.3178387520065174</v>
-      </c>
-      <c r="P47" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="62">
-        <f>'Aileron torsion'!L7</f>
-        <v>-1.4605884846542274</v>
-      </c>
-      <c r="R47" s="44">
-        <v>0</v>
-      </c>
-      <c r="S47" s="45">
-        <f>'Aileron torsion'!O7</f>
-        <v>0.3178387520065174</v>
-      </c>
-      <c r="T47" s="44">
-        <v>0</v>
-      </c>
-      <c r="U47" s="45">
-        <f>'Aileron torsion'!P7</f>
-        <v>-1.4605884846542274</v>
-      </c>
-    </row>
-    <row r="48" spans="9:35" x14ac:dyDescent="0.25">
-      <c r="I48" s="80">
-        <f>'Aileron torsion'!E$8</f>
-        <v>1541</v>
-      </c>
-      <c r="J48" s="44">
-        <v>0</v>
-      </c>
-      <c r="K48" s="45">
-        <f>'Aileron torsion'!G8</f>
-        <v>0.38727781675893364</v>
-      </c>
-      <c r="L48" s="44">
-        <v>0</v>
-      </c>
-      <c r="M48" s="62">
-        <f>'Aileron torsion'!H8</f>
-        <v>-1.7796870770135969</v>
-      </c>
-      <c r="N48" s="44">
-        <v>0</v>
-      </c>
-      <c r="O48" s="45">
-        <f>'Aileron torsion'!K8</f>
-        <v>0.34839968713113606</v>
-      </c>
-      <c r="P48" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="62">
-        <f>'Aileron torsion'!L8</f>
-        <v>-1.6010274639841224</v>
-      </c>
-      <c r="R48" s="44">
-        <v>0</v>
-      </c>
-      <c r="S48" s="45">
-        <f>'Aileron torsion'!O8</f>
-        <v>0.34839968713113606</v>
-      </c>
-      <c r="T48" s="44">
-        <v>0</v>
-      </c>
-      <c r="U48" s="45">
-        <f>'Aileron torsion'!P8</f>
-        <v>-1.6010274639841224</v>
-      </c>
-    </row>
-    <row r="49" spans="9:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I49" s="81">
-        <f>'Aileron torsion'!E$9</f>
-        <v>1691</v>
-      </c>
-      <c r="J49" s="46">
-        <v>0</v>
-      </c>
-      <c r="K49" s="48">
-        <f>'Aileron torsion'!G9</f>
-        <v>0.39596021961359895</v>
-      </c>
-      <c r="L49" s="46">
-        <v>0</v>
-      </c>
-      <c r="M49" s="63">
-        <f>'Aileron torsion'!H9</f>
-        <v>-1.819585980305267</v>
-      </c>
-      <c r="N49" s="46">
-        <v>0</v>
-      </c>
-      <c r="O49" s="48">
-        <f>'Aileron torsion'!K9</f>
-        <v>0.35620337912448019</v>
-      </c>
-      <c r="P49" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="63">
-        <f>'Aileron torsion'!L9</f>
-        <v>-1.6368883607165419</v>
-      </c>
-      <c r="R49" s="46">
-        <v>0</v>
-      </c>
-      <c r="S49" s="48">
-        <f>'Aileron torsion'!O9</f>
-        <v>0.35620337912448019</v>
-      </c>
-      <c r="T49" s="46">
-        <v>0</v>
-      </c>
-      <c r="U49" s="48">
-        <f>'Aileron torsion'!P9</f>
-        <v>-1.6368883607165419</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A23:A25"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="F23:F25"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="J1:U1"/>
-    <mergeCell ref="J11:U11"/>
-    <mergeCell ref="J41:U41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="N42:Q42"/>
-    <mergeCell ref="R42:U42"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="R12:U12"/>
-    <mergeCell ref="J21:U21"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="N22:Q22"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="AH11:AI11"/>
-    <mergeCell ref="J31:U31"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="N32:Q32"/>
-    <mergeCell ref="R32:U32"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AF11:AG11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AD11:AE11"/>
-    <mergeCell ref="AH31:AI31"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AD21:AE21"/>
-    <mergeCell ref="AF21:AG21"/>
-    <mergeCell ref="AH21:AI21"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AD31:AE31"/>
-    <mergeCell ref="AF31:AG31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="A29" sqref="A29"/>
@@ -20619,27 +20631,27 @@
   <sheetData>
     <row r="1" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="87"/>
-      <c r="C1" s="146" t="s">
+      <c r="C1" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="146" t="s">
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="144"/>
+      <c r="H1" s="142" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="148"/>
-      <c r="M1" s="146" t="s">
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="144"/>
+      <c r="M1" s="142" t="s">
         <v>171</v>
       </c>
-      <c r="N1" s="147"/>
-      <c r="O1" s="147"/>
-      <c r="P1" s="147"/>
-      <c r="Q1" s="148"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="143"/>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="144"/>
     </row>
     <row r="2" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="73" t="s">
